--- a/new original/_Lang_Chinese/Lang/CN/Game/Game.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Game.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6132" uniqueCount="4004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6132" uniqueCount="4005">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">weather_Rain</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">It begins to rain.</t>
@@ -8460,7 +8460,7 @@
     <t xml:space="preserve">#1 inject(s) #2 with #3.</t>
   </si>
   <si>
-    <t xml:space="preserve">#1は#3で#2に注射した。</t>
+    <t xml:space="preserve">#1は#3を#2に刺した。</t>
   </si>
   <si>
     <t xml:space="preserve">isIn</t>
@@ -9275,6 +9275,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.255</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.36</t>
@@ -12383,7 +12386,7 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -12401,7 +12404,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -12419,7 +12422,7 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -12437,7 +12440,7 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -12455,7 +12458,7 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -12473,7 +12476,7 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -12491,7 +12494,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -12509,7 +12512,7 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -12545,7 +12548,7 @@
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
@@ -12563,7 +12566,7 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -12581,7 +12584,7 @@
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -12599,7 +12602,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="E15" t="s">
         <v>42</v>
@@ -12617,7 +12620,7 @@
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -12635,7 +12638,7 @@
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="E17" t="s">
         <v>48</v>
@@ -12653,7 +12656,7 @@
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -12671,7 +12674,7 @@
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="E19" t="s">
         <v>54</v>
@@ -12689,7 +12692,7 @@
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -12707,7 +12710,7 @@
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="E21" t="s">
         <v>60</v>
@@ -12725,7 +12728,7 @@
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -12743,7 +12746,7 @@
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="E23" t="s">
         <v>66</v>
@@ -12761,7 +12764,7 @@
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -12779,7 +12782,7 @@
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="E25" t="s">
         <v>72</v>
@@ -12797,7 +12800,7 @@
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -12815,7 +12818,7 @@
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -12833,7 +12836,7 @@
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
@@ -12851,7 +12854,7 @@
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -12869,7 +12872,7 @@
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="E30" t="s">
         <v>87</v>
@@ -12887,7 +12890,7 @@
       </c>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
@@ -12905,7 +12908,7 @@
       </c>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="E32" t="s">
         <v>93</v>
@@ -12923,7 +12926,7 @@
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="E33" t="s">
         <v>96</v>
@@ -12941,7 +12944,7 @@
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="E34" t="s">
         <v>99</v>
@@ -12959,7 +12962,7 @@
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="E35" t="s">
         <v>102</v>
@@ -12977,7 +12980,7 @@
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="E36" t="s">
         <v>105</v>
@@ -12995,7 +12998,7 @@
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -13015,7 +13018,7 @@
         <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -13035,7 +13038,7 @@
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -13055,7 +13058,7 @@
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -13075,7 +13078,7 @@
         <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -13095,7 +13098,7 @@
         <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -13115,7 +13118,7 @@
         <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -13133,7 +13136,7 @@
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -13151,7 +13154,7 @@
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -13171,7 +13174,7 @@
         <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -13191,7 +13194,7 @@
         <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -13211,7 +13214,7 @@
         <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -13231,7 +13234,7 @@
         <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -13251,7 +13254,7 @@
         <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -13271,7 +13274,7 @@
         <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -13291,7 +13294,7 @@
         <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -13311,7 +13314,7 @@
         <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -13331,7 +13334,7 @@
         <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
@@ -13351,7 +13354,7 @@
         <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
@@ -13371,7 +13374,7 @@
         <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
@@ -13391,7 +13394,7 @@
         <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="E57" t="s">
         <v>169</v>
@@ -13411,7 +13414,7 @@
         <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="E58" t="s">
         <v>169</v>
@@ -13431,7 +13434,7 @@
         <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="E59" t="s">
         <v>174</v>
@@ -13451,7 +13454,7 @@
         <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -13471,7 +13474,7 @@
         <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="E61" t="s">
         <v>180</v>
@@ -13489,7 +13492,7 @@
       </c>
       <c r="C62"/>
       <c r="D62" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
@@ -13509,7 +13512,7 @@
         <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="E63" t="s">
         <v>186</v>
@@ -13529,7 +13532,7 @@
         <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="E64" t="s">
         <v>189</v>
@@ -13549,7 +13552,7 @@
         <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="E65" t="s">
         <v>192</v>
@@ -13569,7 +13572,7 @@
         <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="E66" t="s">
         <v>195</v>
@@ -13589,7 +13592,7 @@
         <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="E67" t="s">
         <v>198</v>
@@ -13607,7 +13610,7 @@
       </c>
       <c r="C68"/>
       <c r="D68" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E68" t="s">
         <v>201</v>
@@ -13627,7 +13630,7 @@
         <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E69" t="s">
         <v>204</v>
@@ -13647,7 +13650,7 @@
         <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="E70" t="s">
         <v>207</v>
@@ -13667,7 +13670,7 @@
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -13687,7 +13690,7 @@
         <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -13707,7 +13710,7 @@
         <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -13727,7 +13730,7 @@
         <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -13747,7 +13750,7 @@
         <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -13767,7 +13770,7 @@
         <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -13787,7 +13790,7 @@
         <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -13807,7 +13810,7 @@
         <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -13827,7 +13830,7 @@
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -13847,7 +13850,7 @@
         <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -13867,7 +13870,7 @@
         <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -13885,7 +13888,7 @@
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -13905,7 +13908,7 @@
         <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -13925,7 +13928,7 @@
         <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -13943,7 +13946,7 @@
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -13961,7 +13964,7 @@
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -13979,7 +13982,7 @@
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -13997,7 +14000,7 @@
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -14015,7 +14018,7 @@
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -14033,7 +14036,7 @@
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -14051,7 +14054,7 @@
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -14069,7 +14072,7 @@
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -14087,7 +14090,7 @@
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -14105,7 +14108,7 @@
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -14123,7 +14126,7 @@
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -14141,7 +14144,7 @@
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -14159,7 +14162,7 @@
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
@@ -14177,7 +14180,7 @@
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
@@ -14195,7 +14198,7 @@
       </c>
       <c r="C99"/>
       <c r="D99" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="E99" t="s">
         <v>294</v>
@@ -14213,7 +14216,7 @@
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="E100" t="s">
         <v>297</v>
@@ -14231,7 +14234,7 @@
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="E101" t="s">
         <v>300</v>
@@ -14249,7 +14252,7 @@
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="E102" t="s">
         <v>303</v>
@@ -14267,7 +14270,7 @@
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="E103" t="s">
         <v>306</v>
@@ -14285,7 +14288,7 @@
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="E104" t="s">
         <v>309</v>
@@ -14303,7 +14306,7 @@
       </c>
       <c r="C105"/>
       <c r="D105" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="E105" t="s">
         <v>312</v>
@@ -14321,7 +14324,7 @@
       </c>
       <c r="C106"/>
       <c r="D106" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="E106" t="s">
         <v>315</v>
@@ -14339,7 +14342,7 @@
       </c>
       <c r="C107"/>
       <c r="D107" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="E107" t="s">
         <v>318</v>
@@ -14357,7 +14360,7 @@
       </c>
       <c r="C108"/>
       <c r="D108" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="E108" t="s">
         <v>321</v>
@@ -14375,7 +14378,7 @@
       </c>
       <c r="C109"/>
       <c r="D109" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="E109" t="s">
         <v>324</v>
@@ -14395,7 +14398,7 @@
         <v>327</v>
       </c>
       <c r="D110" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="E110" t="s">
         <v>328</v>
@@ -14415,7 +14418,7 @@
         <v>327</v>
       </c>
       <c r="D111" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="E111" t="s">
         <v>331</v>
@@ -14435,7 +14438,7 @@
         <v>327</v>
       </c>
       <c r="D112" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="E112" t="s">
         <v>334</v>
@@ -14455,7 +14458,7 @@
         <v>327</v>
       </c>
       <c r="D113" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="E113" t="s">
         <v>337</v>
@@ -14475,7 +14478,7 @@
         <v>327</v>
       </c>
       <c r="D114" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="E114" t="s">
         <v>340</v>
@@ -14495,7 +14498,7 @@
         <v>327</v>
       </c>
       <c r="D115" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="E115" t="s">
         <v>343</v>
@@ -14515,7 +14518,7 @@
         <v>327</v>
       </c>
       <c r="D116" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="E116" t="s">
         <v>346</v>
@@ -14535,7 +14538,7 @@
         <v>327</v>
       </c>
       <c r="D117" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="E117" t="s">
         <v>349</v>
@@ -14555,7 +14558,7 @@
         <v>327</v>
       </c>
       <c r="D118" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="E118" t="s">
         <v>352</v>
@@ -14575,7 +14578,7 @@
         <v>327</v>
       </c>
       <c r="D119" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="E119" t="s">
         <v>355</v>
@@ -14593,7 +14596,7 @@
       </c>
       <c r="C120"/>
       <c r="D120" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="E120" t="s">
         <v>358</v>
@@ -14611,7 +14614,7 @@
       </c>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="E121" t="s">
         <v>361</v>
@@ -14629,7 +14632,7 @@
       </c>
       <c r="C122"/>
       <c r="D122" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="E122" t="s">
         <v>364</v>
@@ -14647,7 +14650,7 @@
       </c>
       <c r="C123"/>
       <c r="D123" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="E123" t="s">
         <v>367</v>
@@ -14665,7 +14668,7 @@
       </c>
       <c r="C124"/>
       <c r="D124" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="E124" t="s">
         <v>370</v>
@@ -14683,7 +14686,7 @@
       </c>
       <c r="C125"/>
       <c r="D125" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="E125" t="s">
         <v>373</v>
@@ -14701,7 +14704,7 @@
       </c>
       <c r="C126"/>
       <c r="D126" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="E126" t="s">
         <v>376</v>
@@ -14721,7 +14724,7 @@
         <v>379</v>
       </c>
       <c r="D127" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="E127" t="s">
         <v>380</v>
@@ -14741,7 +14744,7 @@
         <v>379</v>
       </c>
       <c r="D128" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="E128" t="s">
         <v>383</v>
@@ -14761,7 +14764,7 @@
         <v>379</v>
       </c>
       <c r="D129" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="E129" t="s">
         <v>383</v>
@@ -14781,7 +14784,7 @@
         <v>379</v>
       </c>
       <c r="D130" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="E130" t="s">
         <v>388</v>
@@ -14801,7 +14804,7 @@
         <v>379</v>
       </c>
       <c r="D131" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="E131" t="s">
         <v>391</v>
@@ -14821,7 +14824,7 @@
         <v>379</v>
       </c>
       <c r="D132" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="E132" t="s">
         <v>394</v>
@@ -14841,7 +14844,7 @@
         <v>379</v>
       </c>
       <c r="D133" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="E133" t="s">
         <v>397</v>
@@ -14861,7 +14864,7 @@
         <v>379</v>
       </c>
       <c r="D134" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="E134" t="s">
         <v>400</v>
@@ -14881,7 +14884,7 @@
         <v>379</v>
       </c>
       <c r="D135" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="E135" t="s">
         <v>403</v>
@@ -14901,7 +14904,7 @@
         <v>379</v>
       </c>
       <c r="D136" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="E136" t="s">
         <v>406</v>
@@ -14921,7 +14924,7 @@
         <v>379</v>
       </c>
       <c r="D137" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="E137" t="s">
         <v>409</v>
@@ -14941,7 +14944,7 @@
         <v>379</v>
       </c>
       <c r="D138" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="E138" t="s">
         <v>412</v>
@@ -14961,7 +14964,7 @@
         <v>379</v>
       </c>
       <c r="D139" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="E139" t="s">
         <v>415</v>
@@ -14981,7 +14984,7 @@
         <v>379</v>
       </c>
       <c r="D140" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="E140" t="s">
         <v>418</v>
@@ -15001,7 +15004,7 @@
         <v>379</v>
       </c>
       <c r="D141" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="E141" t="s">
         <v>421</v>
@@ -15021,7 +15024,7 @@
         <v>379</v>
       </c>
       <c r="D142" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="E142" t="s">
         <v>424</v>
@@ -15041,7 +15044,7 @@
         <v>379</v>
       </c>
       <c r="D143" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="E143" t="s">
         <v>427</v>
@@ -15061,7 +15064,7 @@
         <v>379</v>
       </c>
       <c r="D144" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="E144" t="s">
         <v>430</v>
@@ -15081,7 +15084,7 @@
         <v>379</v>
       </c>
       <c r="D145" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="E145" t="s">
         <v>433</v>
@@ -15101,7 +15104,7 @@
         <v>379</v>
       </c>
       <c r="D146" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="E146" t="s">
         <v>436</v>
@@ -15121,7 +15124,7 @@
         <v>379</v>
       </c>
       <c r="D147" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="E147" t="s">
         <v>439</v>
@@ -15141,7 +15144,7 @@
         <v>379</v>
       </c>
       <c r="D148" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="E148" t="s">
         <v>442</v>
@@ -15161,7 +15164,7 @@
         <v>379</v>
       </c>
       <c r="D149" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="E149" t="s">
         <v>445</v>
@@ -15181,7 +15184,7 @@
         <v>379</v>
       </c>
       <c r="D150" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="E150" t="s">
         <v>448</v>
@@ -15201,7 +15204,7 @@
         <v>379</v>
       </c>
       <c r="D151" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="E151" t="s">
         <v>451</v>
@@ -15221,7 +15224,7 @@
         <v>379</v>
       </c>
       <c r="D152" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="E152" t="s">
         <v>454</v>
@@ -15241,7 +15244,7 @@
         <v>379</v>
       </c>
       <c r="D153" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="E153" t="s">
         <v>457</v>
@@ -15261,7 +15264,7 @@
         <v>379</v>
       </c>
       <c r="D154" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="E154" t="s">
         <v>460</v>
@@ -15281,7 +15284,7 @@
         <v>379</v>
       </c>
       <c r="D155" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="E155" t="s">
         <v>463</v>
@@ -15301,7 +15304,7 @@
         <v>379</v>
       </c>
       <c r="D156" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="E156" t="s">
         <v>466</v>
@@ -15321,7 +15324,7 @@
         <v>379</v>
       </c>
       <c r="D157" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="E157" t="s">
         <v>469</v>
@@ -15339,7 +15342,7 @@
       </c>
       <c r="C158"/>
       <c r="D158" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="E158" t="s">
         <v>472</v>
@@ -15357,7 +15360,7 @@
       </c>
       <c r="C159"/>
       <c r="D159" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="E159" t="s">
         <v>475</v>
@@ -15377,7 +15380,7 @@
         <v>379</v>
       </c>
       <c r="D160" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="E160" t="s">
         <v>478</v>
@@ -15395,7 +15398,7 @@
       </c>
       <c r="C161"/>
       <c r="D161" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="E161" t="s">
         <v>481</v>
@@ -15413,7 +15416,7 @@
       </c>
       <c r="C162"/>
       <c r="D162" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="E162" t="s">
         <v>484</v>
@@ -15431,7 +15434,7 @@
       </c>
       <c r="C163"/>
       <c r="D163" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="E163" t="s">
         <v>487</v>
@@ -15449,7 +15452,7 @@
       </c>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="E164" t="s">
         <v>490</v>
@@ -15467,7 +15470,7 @@
       </c>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="E165" t="s">
         <v>493</v>
@@ -15485,7 +15488,7 @@
       </c>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="E166" t="s">
         <v>496</v>
@@ -15503,7 +15506,7 @@
       </c>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="E167" t="s">
         <v>499</v>
@@ -15521,7 +15524,7 @@
       </c>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="E168" t="s">
         <v>502</v>
@@ -15539,7 +15542,7 @@
       </c>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E169" t="s">
         <v>505</v>
@@ -15557,7 +15560,7 @@
       </c>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="E170" t="s">
         <v>508</v>
@@ -15575,7 +15578,7 @@
       </c>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="E171" t="s">
         <v>511</v>
@@ -15593,7 +15596,7 @@
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="E172" t="s">
         <v>514</v>
@@ -15611,7 +15614,7 @@
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="E173" t="s">
         <v>517</v>
@@ -15629,7 +15632,7 @@
       </c>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="E174" t="s">
         <v>520</v>
@@ -15647,7 +15650,7 @@
       </c>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="E175" t="s">
         <v>523</v>
@@ -15665,7 +15668,7 @@
       </c>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="E176" t="s">
         <v>526</v>
@@ -15683,7 +15686,7 @@
       </c>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="E177" t="s">
         <v>529</v>
@@ -15701,7 +15704,7 @@
       </c>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="E178" t="s">
         <v>532</v>
@@ -15719,7 +15722,7 @@
       </c>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="E179" t="s">
         <v>535</v>
@@ -15737,7 +15740,7 @@
       </c>
       <c r="C180"/>
       <c r="D180" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="E180" t="s">
         <v>538</v>
@@ -15755,7 +15758,7 @@
       </c>
       <c r="C181"/>
       <c r="D181" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="E181" t="s">
         <v>541</v>
@@ -15773,7 +15776,7 @@
       </c>
       <c r="C182"/>
       <c r="D182" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="E182" t="s">
         <v>543</v>
@@ -15791,7 +15794,7 @@
       </c>
       <c r="C183"/>
       <c r="D183" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="E183" t="s">
         <v>546</v>
@@ -15809,7 +15812,7 @@
       </c>
       <c r="C184"/>
       <c r="D184" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="E184" t="s">
         <v>549</v>
@@ -15827,7 +15830,7 @@
       </c>
       <c r="C185"/>
       <c r="D185" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="E185" t="s">
         <v>552</v>
@@ -15845,7 +15848,7 @@
       </c>
       <c r="C186"/>
       <c r="D186" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="E186" t="s">
         <v>555</v>
@@ -15863,7 +15866,7 @@
       </c>
       <c r="C187"/>
       <c r="D187" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="E187" t="s">
         <v>558</v>
@@ -15881,7 +15884,7 @@
       </c>
       <c r="C188"/>
       <c r="D188" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="E188" t="s">
         <v>561</v>
@@ -15899,7 +15902,7 @@
       </c>
       <c r="C189"/>
       <c r="D189" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="E189" t="s">
         <v>564</v>
@@ -15919,7 +15922,7 @@
         <v>379</v>
       </c>
       <c r="D190" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="E190" t="s">
         <v>567</v>
@@ -15939,7 +15942,7 @@
         <v>379</v>
       </c>
       <c r="D191" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="E191" t="s">
         <v>570</v>
@@ -15959,7 +15962,7 @@
         <v>379</v>
       </c>
       <c r="D192" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="E192" t="s">
         <v>573</v>
@@ -15979,7 +15982,7 @@
         <v>379</v>
       </c>
       <c r="D193" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="E193" t="s">
         <v>576</v>
@@ -15999,7 +16002,7 @@
         <v>379</v>
       </c>
       <c r="D194" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="E194" t="s">
         <v>579</v>
@@ -16019,7 +16022,7 @@
         <v>379</v>
       </c>
       <c r="D195" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="E195" t="s">
         <v>579</v>
@@ -16039,7 +16042,7 @@
         <v>379</v>
       </c>
       <c r="D196" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="E196" t="s">
         <v>584</v>
@@ -16059,7 +16062,7 @@
         <v>379</v>
       </c>
       <c r="D197" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="E197" t="s">
         <v>584</v>
@@ -16079,7 +16082,7 @@
         <v>379</v>
       </c>
       <c r="D198" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="E198" t="s">
         <v>589</v>
@@ -16099,7 +16102,7 @@
         <v>379</v>
       </c>
       <c r="D199" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="E199" t="s">
         <v>589</v>
@@ -16119,7 +16122,7 @@
         <v>379</v>
       </c>
       <c r="D200" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="E200" t="s">
         <v>589</v>
@@ -16139,7 +16142,7 @@
         <v>379</v>
       </c>
       <c r="D201" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="E201" t="s">
         <v>596</v>
@@ -16159,7 +16162,7 @@
         <v>379</v>
       </c>
       <c r="D202" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="E202" t="s">
         <v>599</v>
@@ -16179,7 +16182,7 @@
         <v>379</v>
       </c>
       <c r="D203" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="E203" t="s">
         <v>602</v>
@@ -16199,7 +16202,7 @@
         <v>379</v>
       </c>
       <c r="D204" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="E204" t="s">
         <v>605</v>
@@ -16219,7 +16222,7 @@
         <v>379</v>
       </c>
       <c r="D205" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="E205" t="s">
         <v>608</v>
@@ -16239,7 +16242,7 @@
         <v>379</v>
       </c>
       <c r="D206" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="E206" t="s">
         <v>611</v>
@@ -16259,7 +16262,7 @@
         <v>379</v>
       </c>
       <c r="D207" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="E207" t="s">
         <v>614</v>
@@ -16279,7 +16282,7 @@
         <v>379</v>
       </c>
       <c r="D208" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="E208" t="s">
         <v>617</v>
@@ -16299,7 +16302,7 @@
         <v>379</v>
       </c>
       <c r="D209" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="E209" t="s">
         <v>602</v>
@@ -16319,7 +16322,7 @@
         <v>379</v>
       </c>
       <c r="D210" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="E210" t="s">
         <v>605</v>
@@ -16339,7 +16342,7 @@
         <v>379</v>
       </c>
       <c r="D211" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="E211" t="s">
         <v>608</v>
@@ -16359,7 +16362,7 @@
         <v>379</v>
       </c>
       <c r="D212" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="E212" t="s">
         <v>611</v>
@@ -16379,7 +16382,7 @@
         <v>379</v>
       </c>
       <c r="D213" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="E213" t="s">
         <v>614</v>
@@ -16399,7 +16402,7 @@
         <v>379</v>
       </c>
       <c r="D214" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="E214" t="s">
         <v>617</v>
@@ -16439,7 +16442,7 @@
         <v>379</v>
       </c>
       <c r="D216" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="E216" t="s">
         <v>634</v>
@@ -16459,7 +16462,7 @@
         <v>379</v>
       </c>
       <c r="D217" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="E217" t="s">
         <v>637</v>
@@ -16479,7 +16482,7 @@
         <v>379</v>
       </c>
       <c r="D218" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="E218" t="s">
         <v>640</v>
@@ -16499,7 +16502,7 @@
         <v>379</v>
       </c>
       <c r="D219" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E219" t="s">
         <v>643</v>
@@ -16519,7 +16522,7 @@
         <v>379</v>
       </c>
       <c r="D220" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E220" t="s">
         <v>643</v>
@@ -16539,7 +16542,7 @@
         <v>379</v>
       </c>
       <c r="D221" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="E221" t="s">
         <v>647</v>
@@ -16559,7 +16562,7 @@
         <v>379</v>
       </c>
       <c r="D222" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="E222" t="s">
         <v>650</v>
@@ -16579,7 +16582,7 @@
         <v>379</v>
       </c>
       <c r="D223" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="E223" t="s">
         <v>653</v>
@@ -16599,7 +16602,7 @@
         <v>379</v>
       </c>
       <c r="D224" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="E224" t="s">
         <v>656</v>
@@ -16619,7 +16622,7 @@
         <v>379</v>
       </c>
       <c r="D225" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="E225" t="s">
         <v>659</v>
@@ -16639,7 +16642,7 @@
         <v>379</v>
       </c>
       <c r="D226" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="E226" t="s">
         <v>662</v>
@@ -16659,7 +16662,7 @@
         <v>379</v>
       </c>
       <c r="D227" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="E227" t="s">
         <v>665</v>
@@ -16679,7 +16682,7 @@
         <v>379</v>
       </c>
       <c r="D228" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="E228" t="s">
         <v>668</v>
@@ -16699,7 +16702,7 @@
         <v>379</v>
       </c>
       <c r="D229" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="E229" t="s">
         <v>671</v>
@@ -16719,7 +16722,7 @@
         <v>379</v>
       </c>
       <c r="D230" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="E230" t="s">
         <v>674</v>
@@ -16739,7 +16742,7 @@
         <v>379</v>
       </c>
       <c r="D231" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="E231" t="s">
         <v>677</v>
@@ -16759,7 +16762,7 @@
         <v>379</v>
       </c>
       <c r="D232" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="E232" t="s">
         <v>680</v>
@@ -16779,7 +16782,7 @@
         <v>379</v>
       </c>
       <c r="D233" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="E233" t="s">
         <v>683</v>
@@ -16799,7 +16802,7 @@
         <v>379</v>
       </c>
       <c r="D234" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="E234" t="s">
         <v>686</v>
@@ -16819,7 +16822,7 @@
         <v>379</v>
       </c>
       <c r="D235" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="E235" t="s">
         <v>689</v>
@@ -16852,7 +16855,7 @@
         <v>379</v>
       </c>
       <c r="D237" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="E237" t="s">
         <v>693</v>
@@ -16872,7 +16875,7 @@
         <v>379</v>
       </c>
       <c r="D238" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="E238" t="s">
         <v>696</v>
@@ -16892,7 +16895,7 @@
         <v>379</v>
       </c>
       <c r="D239" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="E239" t="s">
         <v>699</v>
@@ -16912,7 +16915,7 @@
         <v>379</v>
       </c>
       <c r="D240" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="E240" t="s">
         <v>702</v>
@@ -16932,7 +16935,7 @@
         <v>379</v>
       </c>
       <c r="D241" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="E241" t="s">
         <v>705</v>
@@ -16952,7 +16955,7 @@
         <v>379</v>
       </c>
       <c r="D242" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="E242" t="s">
         <v>708</v>
@@ -16972,7 +16975,7 @@
         <v>379</v>
       </c>
       <c r="D243" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="E243" t="s">
         <v>711</v>
@@ -16992,7 +16995,7 @@
         <v>379</v>
       </c>
       <c r="D244" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="E244" t="s">
         <v>714</v>
@@ -17012,7 +17015,7 @@
         <v>379</v>
       </c>
       <c r="D245" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="E245" t="s">
         <v>717</v>
@@ -17032,7 +17035,7 @@
         <v>379</v>
       </c>
       <c r="D246" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="E246" t="s">
         <v>720</v>
@@ -17052,7 +17055,7 @@
         <v>379</v>
       </c>
       <c r="D247" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E247" t="s">
         <v>723</v>
@@ -17072,7 +17075,7 @@
         <v>379</v>
       </c>
       <c r="D248" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="E248" t="s">
         <v>726</v>
@@ -17092,7 +17095,7 @@
         <v>379</v>
       </c>
       <c r="D249" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="E249" t="s">
         <v>729</v>
@@ -17112,7 +17115,7 @@
         <v>379</v>
       </c>
       <c r="D250" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="E250" t="s">
         <v>732</v>
@@ -17132,7 +17135,7 @@
         <v>379</v>
       </c>
       <c r="D251" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="E251" t="s">
         <v>735</v>
@@ -17152,7 +17155,7 @@
         <v>379</v>
       </c>
       <c r="D252" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="E252" t="s">
         <v>738</v>
@@ -17172,7 +17175,7 @@
         <v>379</v>
       </c>
       <c r="D253" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="E253" t="s">
         <v>741</v>
@@ -17192,7 +17195,7 @@
         <v>379</v>
       </c>
       <c r="D254" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="E254" t="s">
         <v>744</v>
@@ -17212,7 +17215,7 @@
         <v>379</v>
       </c>
       <c r="D255" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="E255" t="s">
         <v>747</v>
@@ -17232,7 +17235,7 @@
         <v>379</v>
       </c>
       <c r="D256" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="E256" t="s">
         <v>750</v>
@@ -17252,7 +17255,7 @@
         <v>379</v>
       </c>
       <c r="D257" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="E257" t="s">
         <v>753</v>
@@ -17272,7 +17275,7 @@
         <v>379</v>
       </c>
       <c r="D258" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="E258" t="s">
         <v>756</v>
@@ -17292,7 +17295,7 @@
         <v>379</v>
       </c>
       <c r="D259" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="E259" t="s">
         <v>759</v>
@@ -17312,7 +17315,7 @@
         <v>379</v>
       </c>
       <c r="D260" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="E260" t="s">
         <v>762</v>
@@ -17332,7 +17335,7 @@
         <v>379</v>
       </c>
       <c r="D261" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="E261" t="s">
         <v>765</v>
@@ -17352,7 +17355,7 @@
         <v>379</v>
       </c>
       <c r="D262" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="E262" t="s">
         <v>768</v>
@@ -17372,7 +17375,7 @@
         <v>379</v>
       </c>
       <c r="D263" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="E263" t="s">
         <v>771</v>
@@ -17392,7 +17395,7 @@
         <v>379</v>
       </c>
       <c r="D264" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="E264" t="s">
         <v>774</v>
@@ -17412,7 +17415,7 @@
         <v>379</v>
       </c>
       <c r="D265" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="E265" t="s">
         <v>777</v>
@@ -17432,7 +17435,7 @@
         <v>379</v>
       </c>
       <c r="D266" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="E266" t="s">
         <v>780</v>
@@ -17452,7 +17455,7 @@
         <v>379</v>
       </c>
       <c r="D267" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="E267" t="s">
         <v>783</v>
@@ -17472,7 +17475,7 @@
         <v>379</v>
       </c>
       <c r="D268" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E268" t="s">
         <v>786</v>
@@ -17492,7 +17495,7 @@
         <v>379</v>
       </c>
       <c r="D269" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="E269" t="s">
         <v>789</v>
@@ -17512,7 +17515,7 @@
         <v>379</v>
       </c>
       <c r="D270" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="E270" t="s">
         <v>792</v>
@@ -17532,7 +17535,7 @@
         <v>379</v>
       </c>
       <c r="D271" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="E271" t="s">
         <v>795</v>
@@ -17552,7 +17555,7 @@
         <v>379</v>
       </c>
       <c r="D272" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="E272" t="s">
         <v>798</v>
@@ -17572,7 +17575,7 @@
         <v>379</v>
       </c>
       <c r="D273" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="E273" t="s">
         <v>801</v>
@@ -17592,7 +17595,7 @@
         <v>379</v>
       </c>
       <c r="D274" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="E274" t="s">
         <v>804</v>
@@ -17612,7 +17615,7 @@
         <v>379</v>
       </c>
       <c r="D275" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="E275" t="s">
         <v>807</v>
@@ -17632,7 +17635,7 @@
         <v>379</v>
       </c>
       <c r="D276" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="E276" t="s">
         <v>810</v>
@@ -17652,7 +17655,7 @@
         <v>379</v>
       </c>
       <c r="D277" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="E277" t="s">
         <v>813</v>
@@ -17672,7 +17675,7 @@
         <v>379</v>
       </c>
       <c r="D278" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="E278" t="s">
         <v>816</v>
@@ -17692,7 +17695,7 @@
         <v>379</v>
       </c>
       <c r="D279" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="E279" t="s">
         <v>819</v>
@@ -17712,7 +17715,7 @@
         <v>379</v>
       </c>
       <c r="D280" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="E280" t="s">
         <v>822</v>
@@ -17732,7 +17735,7 @@
         <v>379</v>
       </c>
       <c r="D281" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="E281" t="s">
         <v>825</v>
@@ -17750,7 +17753,7 @@
       </c>
       <c r="C282"/>
       <c r="D282" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="E282" t="s">
         <v>828</v>
@@ -17768,7 +17771,7 @@
       </c>
       <c r="C283"/>
       <c r="D283" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="E283" t="s">
         <v>831</v>
@@ -17786,7 +17789,7 @@
       </c>
       <c r="C284"/>
       <c r="D284" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="E284" t="s">
         <v>834</v>
@@ -17804,7 +17807,7 @@
       </c>
       <c r="C285"/>
       <c r="D285" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="E285" t="s">
         <v>837</v>
@@ -17822,7 +17825,7 @@
       </c>
       <c r="C286"/>
       <c r="D286" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="E286" t="s">
         <v>840</v>
@@ -17840,7 +17843,7 @@
       </c>
       <c r="C287"/>
       <c r="D287" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="E287" t="s">
         <v>843</v>
@@ -17858,7 +17861,7 @@
       </c>
       <c r="C288"/>
       <c r="D288" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="E288" t="s">
         <v>846</v>
@@ -17876,7 +17879,7 @@
       </c>
       <c r="C289"/>
       <c r="D289" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="E289" t="s">
         <v>849</v>
@@ -17894,7 +17897,7 @@
       </c>
       <c r="C290"/>
       <c r="D290" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="E290" t="s">
         <v>852</v>
@@ -17912,7 +17915,7 @@
       </c>
       <c r="C291"/>
       <c r="D291" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="E291" t="s">
         <v>855</v>
@@ -17930,7 +17933,7 @@
       </c>
       <c r="C292"/>
       <c r="D292" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="E292" t="s">
         <v>858</v>
@@ -17948,7 +17951,7 @@
       </c>
       <c r="C293"/>
       <c r="D293" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="E293" t="s">
         <v>861</v>
@@ -17966,7 +17969,7 @@
       </c>
       <c r="C294"/>
       <c r="D294" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="E294" t="s">
         <v>864</v>
@@ -17984,7 +17987,7 @@
       </c>
       <c r="C295"/>
       <c r="D295" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="E295" t="s">
         <v>867</v>
@@ -18002,7 +18005,7 @@
       </c>
       <c r="C296"/>
       <c r="D296" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="E296" t="s">
         <v>870</v>
@@ -18020,7 +18023,7 @@
       </c>
       <c r="C297"/>
       <c r="D297" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="E297" t="s">
         <v>873</v>
@@ -18040,7 +18043,7 @@
         <v>876</v>
       </c>
       <c r="D298" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="E298" t="s">
         <v>877</v>
@@ -18060,7 +18063,7 @@
         <v>876</v>
       </c>
       <c r="D299" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="E299" t="s">
         <v>880</v>
@@ -18078,7 +18081,7 @@
       </c>
       <c r="C300"/>
       <c r="D300" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="E300" t="s">
         <v>883</v>
@@ -18098,7 +18101,7 @@
         <v>886</v>
       </c>
       <c r="D301" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="E301" t="s">
         <v>887</v>
@@ -18116,7 +18119,7 @@
       </c>
       <c r="C302"/>
       <c r="D302" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="E302" t="s">
         <v>890</v>
@@ -18134,7 +18137,7 @@
       </c>
       <c r="C303"/>
       <c r="D303" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="E303" t="s">
         <v>893</v>
@@ -18152,7 +18155,7 @@
       </c>
       <c r="C304"/>
       <c r="D304" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="E304" t="s">
         <v>896</v>
@@ -18170,7 +18173,7 @@
       </c>
       <c r="C305"/>
       <c r="D305" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="E305" t="s">
         <v>899</v>
@@ -18188,7 +18191,7 @@
       </c>
       <c r="C306"/>
       <c r="D306" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="E306" t="s">
         <v>902</v>
@@ -18206,7 +18209,7 @@
       </c>
       <c r="C307"/>
       <c r="D307" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="E307" t="s">
         <v>905</v>
@@ -18224,7 +18227,7 @@
       </c>
       <c r="C308"/>
       <c r="D308" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="E308" t="s">
         <v>908</v>
@@ -18242,7 +18245,7 @@
       </c>
       <c r="C309"/>
       <c r="D309" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="E309" t="s">
         <v>911</v>
@@ -18260,7 +18263,7 @@
       </c>
       <c r="C310"/>
       <c r="D310" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="E310" t="s">
         <v>914</v>
@@ -18278,7 +18281,7 @@
       </c>
       <c r="C311"/>
       <c r="D311" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="E311" t="s">
         <v>917</v>
@@ -18296,7 +18299,7 @@
       </c>
       <c r="C312"/>
       <c r="D312" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="E312" t="s">
         <v>920</v>
@@ -18314,7 +18317,7 @@
       </c>
       <c r="C313"/>
       <c r="D313" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E313" t="s">
         <v>923</v>
@@ -18332,7 +18335,7 @@
       </c>
       <c r="C314"/>
       <c r="D314" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="E314" t="s">
         <v>926</v>
@@ -18350,7 +18353,7 @@
       </c>
       <c r="C315"/>
       <c r="D315" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="E315" t="s">
         <v>929</v>
@@ -18368,7 +18371,7 @@
       </c>
       <c r="C316"/>
       <c r="D316" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="E316" t="s">
         <v>932</v>
@@ -18386,7 +18389,7 @@
       </c>
       <c r="C317"/>
       <c r="D317" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="E317" t="s">
         <v>935</v>
@@ -18404,7 +18407,7 @@
       </c>
       <c r="C318"/>
       <c r="D318" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="E318" t="s">
         <v>938</v>
@@ -18422,7 +18425,7 @@
       </c>
       <c r="C319"/>
       <c r="D319" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="E319" t="s">
         <v>941</v>
@@ -18440,7 +18443,7 @@
       </c>
       <c r="C320"/>
       <c r="D320" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="E320" t="s">
         <v>944</v>
@@ -18458,7 +18461,7 @@
       </c>
       <c r="C321"/>
       <c r="D321" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="E321" t="s">
         <v>947</v>
@@ -18476,7 +18479,7 @@
       </c>
       <c r="C322"/>
       <c r="D322" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="E322" t="s">
         <v>950</v>
@@ -18494,7 +18497,7 @@
       </c>
       <c r="C323"/>
       <c r="D323" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="E323" t="s">
         <v>953</v>
@@ -18512,7 +18515,7 @@
       </c>
       <c r="C324"/>
       <c r="D324" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="E324" t="s">
         <v>956</v>
@@ -18530,7 +18533,7 @@
       </c>
       <c r="C325"/>
       <c r="D325" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="E325" t="s">
         <v>959</v>
@@ -18548,7 +18551,7 @@
       </c>
       <c r="C326"/>
       <c r="D326" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="E326" t="s">
         <v>962</v>
@@ -18566,7 +18569,7 @@
       </c>
       <c r="C327"/>
       <c r="D327" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="E327" t="s">
         <v>965</v>
@@ -18584,7 +18587,7 @@
       </c>
       <c r="C328"/>
       <c r="D328" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="E328" t="s">
         <v>968</v>
@@ -18602,7 +18605,7 @@
       </c>
       <c r="C329"/>
       <c r="D329" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="E329" t="s">
         <v>971</v>
@@ -18620,7 +18623,7 @@
       </c>
       <c r="C330"/>
       <c r="D330" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E330" t="s">
         <v>974</v>
@@ -18638,7 +18641,7 @@
       </c>
       <c r="C331"/>
       <c r="D331" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="E331" t="s">
         <v>977</v>
@@ -18656,7 +18659,7 @@
       </c>
       <c r="C332"/>
       <c r="D332" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="E332" t="s">
         <v>980</v>
@@ -18674,7 +18677,7 @@
       </c>
       <c r="C333"/>
       <c r="D333" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="E333" t="s">
         <v>983</v>
@@ -18692,7 +18695,7 @@
       </c>
       <c r="C334"/>
       <c r="D334" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="E334" t="s">
         <v>986</v>
@@ -18710,7 +18713,7 @@
       </c>
       <c r="C335"/>
       <c r="D335" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="E335" t="s">
         <v>989</v>
@@ -18728,7 +18731,7 @@
       </c>
       <c r="C336"/>
       <c r="D336" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="E336" t="s">
         <v>992</v>
@@ -18746,7 +18749,7 @@
       </c>
       <c r="C337"/>
       <c r="D337" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="E337" t="s">
         <v>995</v>
@@ -18764,7 +18767,7 @@
       </c>
       <c r="C338"/>
       <c r="D338" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="E338" t="s">
         <v>998</v>
@@ -18782,7 +18785,7 @@
       </c>
       <c r="C339"/>
       <c r="D339" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="E339" t="s">
         <v>1001</v>
@@ -18800,7 +18803,7 @@
       </c>
       <c r="C340"/>
       <c r="D340" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="E340" t="s">
         <v>1004</v>
@@ -18818,7 +18821,7 @@
       </c>
       <c r="C341"/>
       <c r="D341" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="E341" t="s">
         <v>1006</v>
@@ -18836,7 +18839,7 @@
       </c>
       <c r="C342"/>
       <c r="D342" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E342" t="s">
         <v>1009</v>
@@ -18854,7 +18857,7 @@
       </c>
       <c r="C343"/>
       <c r="D343" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="E343" t="s">
         <v>1012</v>
@@ -18872,7 +18875,7 @@
       </c>
       <c r="C344"/>
       <c r="D344" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="E344" t="s">
         <v>1015</v>
@@ -18890,7 +18893,7 @@
       </c>
       <c r="C345"/>
       <c r="D345" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="E345" t="s">
         <v>1018</v>
@@ -18908,7 +18911,7 @@
       </c>
       <c r="C346"/>
       <c r="D346" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="E346" t="s">
         <v>1018</v>
@@ -18926,7 +18929,7 @@
       </c>
       <c r="C347"/>
       <c r="D347" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="E347" t="s">
         <v>1023</v>
@@ -18944,7 +18947,7 @@
       </c>
       <c r="C348"/>
       <c r="D348" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="E348" t="s">
         <v>1026</v>
@@ -18962,7 +18965,7 @@
       </c>
       <c r="C349"/>
       <c r="D349" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="E349" t="s">
         <v>1029</v>
@@ -18980,7 +18983,7 @@
       </c>
       <c r="C350"/>
       <c r="D350" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="E350" t="s">
         <v>1032</v>
@@ -18998,7 +19001,7 @@
       </c>
       <c r="C351"/>
       <c r="D351" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="E351" t="s">
         <v>1035</v>
@@ -19016,7 +19019,7 @@
       </c>
       <c r="C352"/>
       <c r="D352" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="E352" t="s">
         <v>1038</v>
@@ -19036,7 +19039,7 @@
         <v>1041</v>
       </c>
       <c r="D353" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="E353" t="s">
         <v>1042</v>
@@ -19056,7 +19059,7 @@
         <v>1041</v>
       </c>
       <c r="D354" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="E354" t="s">
         <v>1045</v>
@@ -19076,7 +19079,7 @@
         <v>1041</v>
       </c>
       <c r="D355" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="E355" t="s">
         <v>1048</v>
@@ -19096,7 +19099,7 @@
         <v>1041</v>
       </c>
       <c r="D356" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="E356" t="s">
         <v>1051</v>
@@ -19116,7 +19119,7 @@
         <v>1041</v>
       </c>
       <c r="D357" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="E357" t="s">
         <v>1054</v>
@@ -19136,7 +19139,7 @@
         <v>1041</v>
       </c>
       <c r="D358" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="E358" t="s">
         <v>1057</v>
@@ -19156,7 +19159,7 @@
         <v>1041</v>
       </c>
       <c r="D359" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="E359" t="s">
         <v>1060</v>
@@ -19176,7 +19179,7 @@
         <v>1041</v>
       </c>
       <c r="D360" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="E360" t="s">
         <v>1063</v>
@@ -19194,7 +19197,7 @@
       </c>
       <c r="C361"/>
       <c r="D361" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="E361" t="s">
         <v>1066</v>
@@ -19212,7 +19215,7 @@
       </c>
       <c r="C362"/>
       <c r="D362" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="E362" t="s">
         <v>1069</v>
@@ -19230,7 +19233,7 @@
       </c>
       <c r="C363"/>
       <c r="D363" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="E363" t="s">
         <v>1072</v>
@@ -19248,7 +19251,7 @@
       </c>
       <c r="C364"/>
       <c r="D364" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="E364" t="s">
         <v>1075</v>
@@ -19266,7 +19269,7 @@
       </c>
       <c r="C365"/>
       <c r="D365" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="E365" t="s">
         <v>1078</v>
@@ -19284,7 +19287,7 @@
       </c>
       <c r="C366"/>
       <c r="D366" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="E366" t="s">
         <v>1081</v>
@@ -19302,7 +19305,7 @@
       </c>
       <c r="C367"/>
       <c r="D367" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="E367" t="s">
         <v>1084</v>
@@ -19320,7 +19323,7 @@
       </c>
       <c r="C368"/>
       <c r="D368" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="E368" t="s">
         <v>1087</v>
@@ -19338,7 +19341,7 @@
       </c>
       <c r="C369"/>
       <c r="D369" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="E369" t="s">
         <v>1090</v>
@@ -19356,7 +19359,7 @@
       </c>
       <c r="C370"/>
       <c r="D370" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="E370" t="s">
         <v>1093</v>
@@ -19374,7 +19377,7 @@
       </c>
       <c r="C371"/>
       <c r="D371" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="E371" t="s">
         <v>1096</v>
@@ -19392,7 +19395,7 @@
       </c>
       <c r="C372"/>
       <c r="D372" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="E372" t="s">
         <v>1098</v>
@@ -19410,7 +19413,7 @@
       </c>
       <c r="C373"/>
       <c r="D373" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="E373" t="s">
         <v>1101</v>
@@ -19428,7 +19431,7 @@
       </c>
       <c r="C374"/>
       <c r="D374" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="E374" t="s">
         <v>376</v>
@@ -19446,7 +19449,7 @@
       </c>
       <c r="C375"/>
       <c r="D375" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="E375" t="s">
         <v>1105</v>
@@ -19464,7 +19467,7 @@
       </c>
       <c r="C376"/>
       <c r="D376" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="E376" t="s">
         <v>1108</v>
@@ -19482,7 +19485,7 @@
       </c>
       <c r="C377"/>
       <c r="D377" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="E377" t="s">
         <v>1111</v>
@@ -19500,7 +19503,7 @@
       </c>
       <c r="C378"/>
       <c r="D378" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="E378" t="s">
         <v>1114</v>
@@ -19518,7 +19521,7 @@
       </c>
       <c r="C379"/>
       <c r="D379" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="E379" t="s">
         <v>1117</v>
@@ -19536,7 +19539,7 @@
       </c>
       <c r="C380"/>
       <c r="D380" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="E380" t="s">
         <v>1120</v>
@@ -19554,7 +19557,7 @@
       </c>
       <c r="C381"/>
       <c r="D381" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="E381" t="s">
         <v>1123</v>
@@ -19572,7 +19575,7 @@
       </c>
       <c r="C382"/>
       <c r="D382" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="E382" t="s">
         <v>1126</v>
@@ -19590,7 +19593,7 @@
       </c>
       <c r="C383"/>
       <c r="D383" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="E383" t="s">
         <v>1129</v>
@@ -19608,7 +19611,7 @@
       </c>
       <c r="C384"/>
       <c r="D384" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="E384" t="s">
         <v>1132</v>
@@ -19626,7 +19629,7 @@
       </c>
       <c r="C385"/>
       <c r="D385" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="E385" t="s">
         <v>1135</v>
@@ -19644,7 +19647,7 @@
       </c>
       <c r="C386"/>
       <c r="D386" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="E386" t="s">
         <v>1138</v>
@@ -19662,7 +19665,7 @@
       </c>
       <c r="C387"/>
       <c r="D387" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="E387" t="s">
         <v>1141</v>
@@ -19680,7 +19683,7 @@
       </c>
       <c r="C388"/>
       <c r="D388" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="E388" t="s">
         <v>1144</v>
@@ -19698,7 +19701,7 @@
       </c>
       <c r="C389"/>
       <c r="D389" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="E389" t="s">
         <v>1147</v>
@@ -19716,7 +19719,7 @@
       </c>
       <c r="C390"/>
       <c r="D390" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="E390" t="s">
         <v>1150</v>
@@ -19734,7 +19737,7 @@
       </c>
       <c r="C391"/>
       <c r="D391" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="E391" t="s">
         <v>1153</v>
@@ -19752,7 +19755,7 @@
       </c>
       <c r="C392"/>
       <c r="D392" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="E392" t="s">
         <v>1156</v>
@@ -19770,7 +19773,7 @@
       </c>
       <c r="C393"/>
       <c r="D393" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="E393" t="s">
         <v>1159</v>
@@ -19788,7 +19791,7 @@
       </c>
       <c r="C394"/>
       <c r="D394" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="E394" t="s">
         <v>1162</v>
@@ -19806,7 +19809,7 @@
       </c>
       <c r="C395"/>
       <c r="D395" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="E395" t="s">
         <v>1165</v>
@@ -19824,7 +19827,7 @@
       </c>
       <c r="C396"/>
       <c r="D396" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E396" t="s">
         <v>1168</v>
@@ -19842,7 +19845,7 @@
       </c>
       <c r="C397"/>
       <c r="D397" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="E397" t="s">
         <v>1171</v>
@@ -19860,7 +19863,7 @@
       </c>
       <c r="C398"/>
       <c r="D398" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="E398" t="s">
         <v>1174</v>
@@ -19878,7 +19881,7 @@
       </c>
       <c r="C399"/>
       <c r="D399" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="E399" t="s">
         <v>1177</v>
@@ -19896,7 +19899,7 @@
       </c>
       <c r="C400"/>
       <c r="D400" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="E400" t="s">
         <v>1180</v>
@@ -19914,7 +19917,7 @@
       </c>
       <c r="C401"/>
       <c r="D401" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="E401" t="s">
         <v>1183</v>
@@ -19932,7 +19935,7 @@
       </c>
       <c r="C402"/>
       <c r="D402" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="E402" t="s">
         <v>1186</v>
@@ -19950,7 +19953,7 @@
       </c>
       <c r="C403"/>
       <c r="D403" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="E403" t="s">
         <v>1189</v>
@@ -19968,7 +19971,7 @@
       </c>
       <c r="C404"/>
       <c r="D404" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="E404" t="s">
         <v>1192</v>
@@ -19986,7 +19989,7 @@
       </c>
       <c r="C405"/>
       <c r="D405" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="E405" t="s">
         <v>1195</v>
@@ -20004,7 +20007,7 @@
       </c>
       <c r="C406"/>
       <c r="D406" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="E406" t="s">
         <v>1198</v>
@@ -20022,7 +20025,7 @@
       </c>
       <c r="C407"/>
       <c r="D407" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="E407" t="s">
         <v>1201</v>
@@ -20040,7 +20043,7 @@
       </c>
       <c r="C408"/>
       <c r="D408" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="E408" t="s">
         <v>1204</v>
@@ -20058,7 +20061,7 @@
       </c>
       <c r="C409"/>
       <c r="D409" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="E409" t="s">
         <v>1207</v>
@@ -20076,7 +20079,7 @@
       </c>
       <c r="C410"/>
       <c r="D410" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="E410" t="s">
         <v>1210</v>
@@ -20094,7 +20097,7 @@
       </c>
       <c r="C411"/>
       <c r="D411" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="E411" t="s">
         <v>1213</v>
@@ -20112,7 +20115,7 @@
       </c>
       <c r="C412"/>
       <c r="D412" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="E412" t="s">
         <v>1216</v>
@@ -20130,7 +20133,7 @@
       </c>
       <c r="C413"/>
       <c r="D413" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="E413" t="s">
         <v>1219</v>
@@ -20148,7 +20151,7 @@
       </c>
       <c r="C414"/>
       <c r="D414" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="E414" t="s">
         <v>1222</v>
@@ -20166,7 +20169,7 @@
       </c>
       <c r="C415"/>
       <c r="D415" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="E415" t="s">
         <v>1225</v>
@@ -20184,7 +20187,7 @@
       </c>
       <c r="C416"/>
       <c r="D416" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="E416" t="s">
         <v>1228</v>
@@ -20202,7 +20205,7 @@
       </c>
       <c r="C417"/>
       <c r="D417" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="E417" t="s">
         <v>1231</v>
@@ -20220,7 +20223,7 @@
       </c>
       <c r="C418"/>
       <c r="D418" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="E418" t="s">
         <v>1234</v>
@@ -20238,7 +20241,7 @@
       </c>
       <c r="C419"/>
       <c r="D419" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="E419" t="s">
         <v>1237</v>
@@ -20256,7 +20259,7 @@
       </c>
       <c r="C420"/>
       <c r="D420" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="E420" t="s">
         <v>1240</v>
@@ -20274,7 +20277,7 @@
       </c>
       <c r="C421"/>
       <c r="D421" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="E421" t="s">
         <v>1243</v>
@@ -20292,7 +20295,7 @@
       </c>
       <c r="C422"/>
       <c r="D422" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="E422" t="s">
         <v>1246</v>
@@ -20310,7 +20313,7 @@
       </c>
       <c r="C423"/>
       <c r="D423" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="E423" t="s">
         <v>1249</v>
@@ -20328,7 +20331,7 @@
       </c>
       <c r="C424"/>
       <c r="D424" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="E424" t="s">
         <v>1252</v>
@@ -20346,7 +20349,7 @@
       </c>
       <c r="C425"/>
       <c r="D425" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="E425" t="s">
         <v>1255</v>
@@ -20364,7 +20367,7 @@
       </c>
       <c r="C426"/>
       <c r="D426" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="E426" t="s">
         <v>1258</v>
@@ -20382,7 +20385,7 @@
       </c>
       <c r="C427"/>
       <c r="D427" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="E427" t="s">
         <v>1261</v>
@@ -20400,7 +20403,7 @@
       </c>
       <c r="C428"/>
       <c r="D428" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="E428" t="s">
         <v>1264</v>
@@ -20418,7 +20421,7 @@
       </c>
       <c r="C429"/>
       <c r="D429" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="E429" t="s">
         <v>1267</v>
@@ -20436,7 +20439,7 @@
       </c>
       <c r="C430"/>
       <c r="D430" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="E430" t="s">
         <v>1270</v>
@@ -20454,7 +20457,7 @@
       </c>
       <c r="C431"/>
       <c r="D431" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="E431" t="s">
         <v>1273</v>
@@ -20472,7 +20475,7 @@
       </c>
       <c r="C432"/>
       <c r="D432" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="E432" t="s">
         <v>1276</v>
@@ -20490,7 +20493,7 @@
       </c>
       <c r="C433"/>
       <c r="D433" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="E433" t="s">
         <v>1276</v>
@@ -20508,7 +20511,7 @@
       </c>
       <c r="C434"/>
       <c r="D434" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="E434" t="s">
         <v>1281</v>
@@ -20526,7 +20529,7 @@
       </c>
       <c r="C435"/>
       <c r="D435" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="E435" t="s">
         <v>1284</v>
@@ -20544,7 +20547,7 @@
       </c>
       <c r="C436"/>
       <c r="D436" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="E436" t="s">
         <v>1287</v>
@@ -20562,7 +20565,7 @@
       </c>
       <c r="C437"/>
       <c r="D437" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="E437" t="s">
         <v>1290</v>
@@ -20580,7 +20583,7 @@
       </c>
       <c r="C438"/>
       <c r="D438" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="E438" t="s">
         <v>1293</v>
@@ -20598,7 +20601,7 @@
       </c>
       <c r="C439"/>
       <c r="D439" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="E439" t="s">
         <v>1296</v>
@@ -20616,7 +20619,7 @@
       </c>
       <c r="C440"/>
       <c r="D440" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="E440" t="s">
         <v>1299</v>
@@ -20634,7 +20637,7 @@
       </c>
       <c r="C441"/>
       <c r="D441" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="E441" t="s">
         <v>1302</v>
@@ -20652,7 +20655,7 @@
       </c>
       <c r="C442"/>
       <c r="D442" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="E442" t="s">
         <v>1305</v>
@@ -20670,7 +20673,7 @@
       </c>
       <c r="C443"/>
       <c r="D443" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="E443" t="s">
         <v>1308</v>
@@ -20688,7 +20691,7 @@
       </c>
       <c r="C444"/>
       <c r="D444" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="E444" t="s">
         <v>1308</v>
@@ -20706,7 +20709,7 @@
       </c>
       <c r="C445"/>
       <c r="D445" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="E445" t="s">
         <v>1308</v>
@@ -20724,7 +20727,7 @@
       </c>
       <c r="C446"/>
       <c r="D446" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="E446" t="s">
         <v>1314</v>
@@ -20742,7 +20745,7 @@
       </c>
       <c r="C447"/>
       <c r="D447" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="E447" t="s">
         <v>1317</v>
@@ -20760,7 +20763,7 @@
       </c>
       <c r="C448"/>
       <c r="D448" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="E448" t="s">
         <v>1320</v>
@@ -20778,7 +20781,7 @@
       </c>
       <c r="C449"/>
       <c r="D449" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="E449" t="s">
         <v>1323</v>
@@ -20796,7 +20799,7 @@
       </c>
       <c r="C450"/>
       <c r="D450" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E450" t="s">
         <v>1326</v>
@@ -20814,7 +20817,7 @@
       </c>
       <c r="C451"/>
       <c r="D451" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="E451" t="s">
         <v>1329</v>
@@ -20832,7 +20835,7 @@
       </c>
       <c r="C452"/>
       <c r="D452" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="E452" t="s">
         <v>1314</v>
@@ -20850,7 +20853,7 @@
       </c>
       <c r="C453"/>
       <c r="D453" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="E453" t="s">
         <v>1334</v>
@@ -20868,7 +20871,7 @@
       </c>
       <c r="C454"/>
       <c r="D454" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="E454" t="s">
         <v>1337</v>
@@ -20886,7 +20889,7 @@
       </c>
       <c r="C455"/>
       <c r="D455" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="E455" t="s">
         <v>1340</v>
@@ -20904,7 +20907,7 @@
       </c>
       <c r="C456"/>
       <c r="D456" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="E456" t="s">
         <v>1343</v>
@@ -20922,7 +20925,7 @@
       </c>
       <c r="C457"/>
       <c r="D457" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="E457" t="s">
         <v>1346</v>
@@ -20940,7 +20943,7 @@
       </c>
       <c r="C458"/>
       <c r="D458" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="E458" t="s">
         <v>1349</v>
@@ -20958,7 +20961,7 @@
       </c>
       <c r="C459"/>
       <c r="D459" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="E459" t="s">
         <v>1352</v>
@@ -20976,7 +20979,7 @@
       </c>
       <c r="C460"/>
       <c r="D460" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="E460" t="s">
         <v>1355</v>
@@ -20994,7 +20997,7 @@
       </c>
       <c r="C461"/>
       <c r="D461" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="E461" t="s">
         <v>1358</v>
@@ -21012,7 +21015,7 @@
       </c>
       <c r="C462"/>
       <c r="D462" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="E462" t="s">
         <v>1358</v>
@@ -21030,7 +21033,7 @@
       </c>
       <c r="C463"/>
       <c r="D463" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="E463" t="s">
         <v>1363</v>
@@ -21048,7 +21051,7 @@
       </c>
       <c r="C464"/>
       <c r="D464" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="E464" t="s">
         <v>1366</v>
@@ -21066,7 +21069,7 @@
       </c>
       <c r="C465"/>
       <c r="D465" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="E465" t="s">
         <v>1369</v>
@@ -21084,7 +21087,7 @@
       </c>
       <c r="C466"/>
       <c r="D466" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="E466" t="s">
         <v>1372</v>
@@ -21102,7 +21105,7 @@
       </c>
       <c r="C467"/>
       <c r="D467" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="E467" t="s">
         <v>1375</v>
@@ -21120,7 +21123,7 @@
       </c>
       <c r="C468"/>
       <c r="D468" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="E468" t="s">
         <v>1378</v>
@@ -21138,7 +21141,7 @@
       </c>
       <c r="C469"/>
       <c r="D469" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="E469" t="s">
         <v>1381</v>
@@ -21156,7 +21159,7 @@
       </c>
       <c r="C470"/>
       <c r="D470" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="E470" t="s">
         <v>1384</v>
@@ -21174,7 +21177,7 @@
       </c>
       <c r="C471"/>
       <c r="D471" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="E471" t="s">
         <v>1387</v>
@@ -21192,7 +21195,7 @@
       </c>
       <c r="C472"/>
       <c r="D472" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="E472" t="s">
         <v>1390</v>
@@ -21210,7 +21213,7 @@
       </c>
       <c r="C473"/>
       <c r="D473" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="E473" t="s">
         <v>1393</v>
@@ -21228,7 +21231,7 @@
       </c>
       <c r="C474"/>
       <c r="D474" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="E474" t="s">
         <v>1396</v>
@@ -21246,7 +21249,7 @@
       </c>
       <c r="C475"/>
       <c r="D475" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="E475" t="s">
         <v>1399</v>
@@ -21264,7 +21267,7 @@
       </c>
       <c r="C476"/>
       <c r="D476" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="E476" t="s">
         <v>1402</v>
@@ -21282,7 +21285,7 @@
       </c>
       <c r="C477"/>
       <c r="D477" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="E477" t="s">
         <v>1405</v>
@@ -21300,7 +21303,7 @@
       </c>
       <c r="C478"/>
       <c r="D478" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="E478" t="s">
         <v>1408</v>
@@ -21318,7 +21321,7 @@
       </c>
       <c r="C479"/>
       <c r="D479" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="E479" t="s">
         <v>1411</v>
@@ -21336,7 +21339,7 @@
       </c>
       <c r="C480"/>
       <c r="D480" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="E480" t="s">
         <v>1414</v>
@@ -21354,7 +21357,7 @@
       </c>
       <c r="C481"/>
       <c r="D481" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="E481" t="s">
         <v>1417</v>
@@ -21372,7 +21375,7 @@
       </c>
       <c r="C482"/>
       <c r="D482" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="E482" t="s">
         <v>1420</v>
@@ -21390,7 +21393,7 @@
       </c>
       <c r="C483"/>
       <c r="D483" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="E483" t="s">
         <v>1423</v>
@@ -21408,7 +21411,7 @@
       </c>
       <c r="C484"/>
       <c r="D484" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="E484" t="s">
         <v>1426</v>
@@ -21426,7 +21429,7 @@
       </c>
       <c r="C485"/>
       <c r="D485" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="E485" t="s">
         <v>1429</v>
@@ -21444,7 +21447,7 @@
       </c>
       <c r="C486"/>
       <c r="D486" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="E486" t="s">
         <v>1432</v>
@@ -21462,7 +21465,7 @@
       </c>
       <c r="C487"/>
       <c r="D487" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="E487" t="s">
         <v>1435</v>
@@ -21480,7 +21483,7 @@
       </c>
       <c r="C488"/>
       <c r="D488" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="E488" t="s">
         <v>1438</v>
@@ -21498,7 +21501,7 @@
       </c>
       <c r="C489"/>
       <c r="D489" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="E489" t="s">
         <v>1441</v>
@@ -21516,7 +21519,7 @@
       </c>
       <c r="C490"/>
       <c r="D490" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="E490" t="s">
         <v>1444</v>
@@ -21534,7 +21537,7 @@
       </c>
       <c r="C491"/>
       <c r="D491" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="E491" t="s">
         <v>1447</v>
@@ -21552,7 +21555,7 @@
       </c>
       <c r="C492"/>
       <c r="D492" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="E492" t="s">
         <v>1450</v>
@@ -21570,7 +21573,7 @@
       </c>
       <c r="C493"/>
       <c r="D493" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="E493" t="s">
         <v>1453</v>
@@ -21588,7 +21591,7 @@
       </c>
       <c r="C494"/>
       <c r="D494" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="E494" t="s">
         <v>1456</v>
@@ -21606,7 +21609,7 @@
       </c>
       <c r="C495"/>
       <c r="D495" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="E495" t="s">
         <v>1459</v>
@@ -21624,7 +21627,7 @@
       </c>
       <c r="C496"/>
       <c r="D496" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="E496" t="s">
         <v>1462</v>
@@ -21642,7 +21645,7 @@
       </c>
       <c r="C497"/>
       <c r="D497" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="E497" t="s">
         <v>1465</v>
@@ -21660,7 +21663,7 @@
       </c>
       <c r="C498"/>
       <c r="D498" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="E498" t="s">
         <v>1468</v>
@@ -21678,7 +21681,7 @@
       </c>
       <c r="C499"/>
       <c r="D499" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="E499" t="s">
         <v>1471</v>
@@ -21696,7 +21699,7 @@
       </c>
       <c r="C500"/>
       <c r="D500" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="E500" t="s">
         <v>1474</v>
@@ -21714,7 +21717,7 @@
       </c>
       <c r="C501"/>
       <c r="D501" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="E501" t="s">
         <v>1477</v>
@@ -21732,7 +21735,7 @@
       </c>
       <c r="C502"/>
       <c r="D502" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="E502" t="s">
         <v>1480</v>
@@ -21750,7 +21753,7 @@
       </c>
       <c r="C503"/>
       <c r="D503" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="E503" t="s">
         <v>1483</v>
@@ -21768,7 +21771,7 @@
       </c>
       <c r="C504"/>
       <c r="D504" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="E504" t="s">
         <v>1486</v>
@@ -21786,7 +21789,7 @@
       </c>
       <c r="C505"/>
       <c r="D505" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="E505" t="s">
         <v>1489</v>
@@ -21804,7 +21807,7 @@
       </c>
       <c r="C506"/>
       <c r="D506" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="E506" t="s">
         <v>1492</v>
@@ -21824,7 +21827,7 @@
         <v>379</v>
       </c>
       <c r="D507" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="E507" t="s">
         <v>1495</v>
@@ -21844,7 +21847,7 @@
         <v>379</v>
       </c>
       <c r="D508" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="E508" t="s">
         <v>1498</v>
@@ -21862,7 +21865,7 @@
       </c>
       <c r="C509"/>
       <c r="D509" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="E509" t="s">
         <v>1501</v>
@@ -21880,7 +21883,7 @@
       </c>
       <c r="C510"/>
       <c r="D510" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="E510" t="s">
         <v>1504</v>
@@ -21898,7 +21901,7 @@
       </c>
       <c r="C511"/>
       <c r="D511" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="E511" t="s">
         <v>1507</v>
@@ -21916,7 +21919,7 @@
       </c>
       <c r="C512"/>
       <c r="D512" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="E512" t="s">
         <v>1510</v>
@@ -21934,7 +21937,7 @@
       </c>
       <c r="C513"/>
       <c r="D513" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="E513" t="s">
         <v>1513</v>
@@ -21952,7 +21955,7 @@
       </c>
       <c r="C514"/>
       <c r="D514" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="E514" t="s">
         <v>1516</v>
@@ -21970,7 +21973,7 @@
       </c>
       <c r="C515"/>
       <c r="D515" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="E515" t="s">
         <v>1519</v>
@@ -21988,7 +21991,7 @@
       </c>
       <c r="C516"/>
       <c r="D516" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="E516" t="s">
         <v>1522</v>
@@ -22008,7 +22011,7 @@
         <v>1525</v>
       </c>
       <c r="D517" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="E517" t="s">
         <v>1526</v>
@@ -22026,7 +22029,7 @@
       </c>
       <c r="C518"/>
       <c r="D518" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="E518" t="s">
         <v>1529</v>
@@ -22044,7 +22047,7 @@
       </c>
       <c r="C519"/>
       <c r="D519" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="E519" t="s">
         <v>1532</v>
@@ -22062,7 +22065,7 @@
       </c>
       <c r="C520"/>
       <c r="D520" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="E520" t="s">
         <v>376</v>
@@ -22080,7 +22083,7 @@
       </c>
       <c r="C521"/>
       <c r="D521" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="E521" t="s">
         <v>1536</v>
@@ -22098,7 +22101,7 @@
       </c>
       <c r="C522"/>
       <c r="D522" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="E522" t="s">
         <v>1539</v>
@@ -22116,7 +22119,7 @@
       </c>
       <c r="C523"/>
       <c r="D523" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="E523" t="s">
         <v>1542</v>
@@ -22134,7 +22137,7 @@
       </c>
       <c r="C524"/>
       <c r="D524" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="E524" t="s">
         <v>1545</v>
@@ -22152,7 +22155,7 @@
       </c>
       <c r="C525"/>
       <c r="D525" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="E525" t="s">
         <v>1548</v>
@@ -22170,7 +22173,7 @@
       </c>
       <c r="C526"/>
       <c r="D526" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="E526" t="s">
         <v>1551</v>
@@ -22188,7 +22191,7 @@
       </c>
       <c r="C527"/>
       <c r="D527" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="E527" t="s">
         <v>1554</v>
@@ -22206,7 +22209,7 @@
       </c>
       <c r="C528"/>
       <c r="D528" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="E528" t="s">
         <v>1557</v>
@@ -22224,7 +22227,7 @@
       </c>
       <c r="C529"/>
       <c r="D529" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="E529" t="s">
         <v>1560</v>
@@ -22242,7 +22245,7 @@
       </c>
       <c r="C530"/>
       <c r="D530" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="E530" t="s">
         <v>1563</v>
@@ -22260,7 +22263,7 @@
       </c>
       <c r="C531"/>
       <c r="D531" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="E531" t="s">
         <v>1566</v>
@@ -22278,7 +22281,7 @@
       </c>
       <c r="C532"/>
       <c r="D532" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="E532" t="s">
         <v>1569</v>
@@ -22296,7 +22299,7 @@
       </c>
       <c r="C533"/>
       <c r="D533" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="E533" t="s">
         <v>1572</v>
@@ -22314,7 +22317,7 @@
       </c>
       <c r="C534"/>
       <c r="D534" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="E534" t="s">
         <v>1210</v>
@@ -22332,7 +22335,7 @@
       </c>
       <c r="C535"/>
       <c r="D535" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="E535" t="s">
         <v>1577</v>
@@ -22350,7 +22353,7 @@
       </c>
       <c r="C536"/>
       <c r="D536" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="E536" t="s">
         <v>1580</v>
@@ -22368,7 +22371,7 @@
       </c>
       <c r="C537"/>
       <c r="D537" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="E537" t="s">
         <v>1583</v>
@@ -22386,7 +22389,7 @@
       </c>
       <c r="C538"/>
       <c r="D538" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="E538" t="s">
         <v>1586</v>
@@ -22404,7 +22407,7 @@
       </c>
       <c r="C539"/>
       <c r="D539" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="E539" t="s">
         <v>1589</v>
@@ -22422,7 +22425,7 @@
       </c>
       <c r="C540"/>
       <c r="D540" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="E540" t="s">
         <v>1592</v>
@@ -22440,7 +22443,7 @@
       </c>
       <c r="C541"/>
       <c r="D541" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="E541" t="s">
         <v>1595</v>
@@ -22458,7 +22461,7 @@
       </c>
       <c r="C542"/>
       <c r="D542" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="E542" t="s">
         <v>1598</v>
@@ -22476,7 +22479,7 @@
       </c>
       <c r="C543"/>
       <c r="D543" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="E543" t="s">
         <v>1601</v>
@@ -22494,7 +22497,7 @@
       </c>
       <c r="C544"/>
       <c r="D544" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="E544" t="s">
         <v>1604</v>
@@ -22512,7 +22515,7 @@
       </c>
       <c r="C545"/>
       <c r="D545" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="E545" t="s">
         <v>1607</v>
@@ -22530,7 +22533,7 @@
       </c>
       <c r="C546"/>
       <c r="D546" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="E546" t="s">
         <v>1610</v>
@@ -22548,7 +22551,7 @@
       </c>
       <c r="C547"/>
       <c r="D547" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="E547" t="s">
         <v>1613</v>
@@ -22568,7 +22571,7 @@
         <v>1616</v>
       </c>
       <c r="D548" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="E548" t="s">
         <v>1617</v>
@@ -22588,7 +22591,7 @@
         <v>1616</v>
       </c>
       <c r="D549" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
       <c r="E549" t="s">
         <v>1620</v>
@@ -22608,7 +22611,7 @@
         <v>1616</v>
       </c>
       <c r="D550" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="E550" t="s">
         <v>1623</v>
@@ -22628,7 +22631,7 @@
         <v>1616</v>
       </c>
       <c r="D551" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="E551" t="s">
         <v>1626</v>
@@ -22648,7 +22651,7 @@
         <v>1616</v>
       </c>
       <c r="D552" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
       <c r="E552" t="s">
         <v>1629</v>
@@ -22668,7 +22671,7 @@
         <v>1616</v>
       </c>
       <c r="D553" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="E553" t="s">
         <v>1632</v>
@@ -22688,7 +22691,7 @@
         <v>1616</v>
       </c>
       <c r="D554" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="E554" t="s">
         <v>1635</v>
@@ -22708,7 +22711,7 @@
         <v>1616</v>
       </c>
       <c r="D555" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="E555" t="s">
         <v>1638</v>
@@ -22728,7 +22731,7 @@
         <v>1616</v>
       </c>
       <c r="D556" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="E556" t="s">
         <v>1641</v>
@@ -22748,7 +22751,7 @@
         <v>1616</v>
       </c>
       <c r="D557" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="E557" t="s">
         <v>1644</v>
@@ -22768,7 +22771,7 @@
         <v>1616</v>
       </c>
       <c r="D558" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E558" t="s">
         <v>1647</v>
@@ -22788,7 +22791,7 @@
         <v>1616</v>
       </c>
       <c r="D559" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="E559" t="s">
         <v>1650</v>
@@ -22808,7 +22811,7 @@
         <v>1616</v>
       </c>
       <c r="D560" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
       <c r="E560" t="s">
         <v>1653</v>
@@ -22828,7 +22831,7 @@
         <v>1616</v>
       </c>
       <c r="D561" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="E561" t="s">
         <v>1656</v>
@@ -22848,7 +22851,7 @@
         <v>1616</v>
       </c>
       <c r="D562" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="E562" t="s">
         <v>1659</v>
@@ -22868,7 +22871,7 @@
         <v>1616</v>
       </c>
       <c r="D563" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="E563" t="s">
         <v>1662</v>
@@ -22888,7 +22891,7 @@
         <v>1665</v>
       </c>
       <c r="D564" t="s">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="E564" t="s">
         <v>1666</v>
@@ -22908,7 +22911,7 @@
         <v>1616</v>
       </c>
       <c r="D565" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="E565" t="s">
         <v>1669</v>
@@ -22928,7 +22931,7 @@
         <v>1616</v>
       </c>
       <c r="D566" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="E566" t="s">
         <v>1672</v>
@@ -22948,7 +22951,7 @@
         <v>1616</v>
       </c>
       <c r="D567" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="E567" t="s">
         <v>1675</v>
@@ -22966,7 +22969,7 @@
       </c>
       <c r="C568"/>
       <c r="D568" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="E568" t="s">
         <v>1678</v>
@@ -22984,7 +22987,7 @@
       </c>
       <c r="C569"/>
       <c r="D569" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="E569" t="s">
         <v>1681</v>
@@ -23002,7 +23005,7 @@
       </c>
       <c r="C570"/>
       <c r="D570" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E570" t="s">
         <v>1684</v>
@@ -23020,7 +23023,7 @@
       </c>
       <c r="C571"/>
       <c r="D571" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="E571" t="s">
         <v>1687</v>
@@ -23038,7 +23041,7 @@
       </c>
       <c r="C572"/>
       <c r="D572" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="E572" t="s">
         <v>1690</v>
@@ -23056,7 +23059,7 @@
       </c>
       <c r="C573"/>
       <c r="D573" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="E573" t="s">
         <v>1693</v>
@@ -23074,7 +23077,7 @@
       </c>
       <c r="C574"/>
       <c r="D574" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="E574" t="s">
         <v>1696</v>
@@ -23092,7 +23095,7 @@
       </c>
       <c r="C575"/>
       <c r="D575" t="s">
-        <v>3609</v>
+        <v>3610</v>
       </c>
       <c r="E575" t="s">
         <v>1699</v>
@@ -23110,7 +23113,7 @@
       </c>
       <c r="C576"/>
       <c r="D576" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="E576" t="s">
         <v>1702</v>
@@ -23128,7 +23131,7 @@
       </c>
       <c r="C577"/>
       <c r="D577" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="E577" t="s">
         <v>1705</v>
@@ -23146,7 +23149,7 @@
       </c>
       <c r="C578"/>
       <c r="D578" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="E578" t="s">
         <v>1708</v>
@@ -23164,7 +23167,7 @@
       </c>
       <c r="C579"/>
       <c r="D579" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="E579" t="s">
         <v>1711</v>
@@ -23182,7 +23185,7 @@
       </c>
       <c r="C580"/>
       <c r="D580" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="E580" t="s">
         <v>1714</v>
@@ -23200,7 +23203,7 @@
       </c>
       <c r="C581"/>
       <c r="D581" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="E581" t="s">
         <v>1717</v>
@@ -23218,7 +23221,7 @@
       </c>
       <c r="C582"/>
       <c r="D582" t="s">
-        <v>3616</v>
+        <v>3617</v>
       </c>
       <c r="E582" t="s">
         <v>1720</v>
@@ -23236,7 +23239,7 @@
       </c>
       <c r="C583"/>
       <c r="D583" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="E583" t="s">
         <v>1723</v>
@@ -23254,7 +23257,7 @@
       </c>
       <c r="C584"/>
       <c r="D584" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="E584" t="s">
         <v>1726</v>
@@ -23272,7 +23275,7 @@
       </c>
       <c r="C585"/>
       <c r="D585" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
       <c r="E585" t="s">
         <v>1729</v>
@@ -23290,7 +23293,7 @@
       </c>
       <c r="C586"/>
       <c r="D586" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="E586" t="s">
         <v>1732</v>
@@ -23308,7 +23311,7 @@
       </c>
       <c r="C587"/>
       <c r="D587" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="E587" t="s">
         <v>1735</v>
@@ -23326,7 +23329,7 @@
       </c>
       <c r="C588"/>
       <c r="D588" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="E588" t="s">
         <v>1738</v>
@@ -23344,7 +23347,7 @@
       </c>
       <c r="C589"/>
       <c r="D589" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="E589" t="s">
         <v>1741</v>
@@ -23362,7 +23365,7 @@
       </c>
       <c r="C590"/>
       <c r="D590" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="E590" t="s">
         <v>1743</v>
@@ -23380,7 +23383,7 @@
       </c>
       <c r="C591"/>
       <c r="D591" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="E591" t="s">
         <v>1746</v>
@@ -23398,7 +23401,7 @@
       </c>
       <c r="C592"/>
       <c r="D592" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="E592" t="s">
         <v>1749</v>
@@ -23416,7 +23419,7 @@
       </c>
       <c r="C593"/>
       <c r="D593" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="E593" t="s">
         <v>1752</v>
@@ -23434,7 +23437,7 @@
       </c>
       <c r="C594"/>
       <c r="D594" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="E594" t="s">
         <v>1755</v>
@@ -23452,7 +23455,7 @@
       </c>
       <c r="C595"/>
       <c r="D595" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="E595" t="s">
         <v>1758</v>
@@ -23470,7 +23473,7 @@
       </c>
       <c r="C596"/>
       <c r="D596" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="E596" t="s">
         <v>1761</v>
@@ -23488,7 +23491,7 @@
       </c>
       <c r="C597"/>
       <c r="D597" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="E597" t="s">
         <v>1764</v>
@@ -23506,7 +23509,7 @@
       </c>
       <c r="C598"/>
       <c r="D598" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="E598" t="s">
         <v>1767</v>
@@ -23524,7 +23527,7 @@
       </c>
       <c r="C599"/>
       <c r="D599" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="E599" t="s">
         <v>1770</v>
@@ -23542,7 +23545,7 @@
       </c>
       <c r="C600"/>
       <c r="D600" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="E600" t="s">
         <v>1773</v>
@@ -23560,7 +23563,7 @@
       </c>
       <c r="C601"/>
       <c r="D601" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="E601" t="s">
         <v>1776</v>
@@ -23578,7 +23581,7 @@
       </c>
       <c r="C602"/>
       <c r="D602" t="s">
-        <v>3636</v>
+        <v>3637</v>
       </c>
       <c r="E602" t="s">
         <v>1779</v>
@@ -23598,7 +23601,7 @@
         <v>1782</v>
       </c>
       <c r="D603" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="E603" t="s">
         <v>1783</v>
@@ -23638,7 +23641,7 @@
         <v>1782</v>
       </c>
       <c r="D605" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="E605" t="s">
         <v>1789</v>
@@ -23678,7 +23681,7 @@
         <v>1782</v>
       </c>
       <c r="D607" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
       <c r="E607" t="s">
         <v>1793</v>
@@ -23718,7 +23721,7 @@
         <v>1782</v>
       </c>
       <c r="D609" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="E609" t="s">
         <v>1797</v>
@@ -23736,7 +23739,7 @@
       </c>
       <c r="C610"/>
       <c r="D610" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="E610" t="s">
         <v>1800</v>
@@ -23754,7 +23757,7 @@
       </c>
       <c r="C611"/>
       <c r="D611" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="E611" t="s">
         <v>1803</v>
@@ -23772,7 +23775,7 @@
       </c>
       <c r="C612"/>
       <c r="D612" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="E612" t="s">
         <v>1806</v>
@@ -23790,7 +23793,7 @@
       </c>
       <c r="C613"/>
       <c r="D613" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="E613" t="s">
         <v>1809</v>
@@ -23808,7 +23811,7 @@
       </c>
       <c r="C614"/>
       <c r="D614" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="E614" t="s">
         <v>1812</v>
@@ -23826,7 +23829,7 @@
       </c>
       <c r="C615"/>
       <c r="D615" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="E615" t="s">
         <v>1815</v>
@@ -23844,7 +23847,7 @@
       </c>
       <c r="C616"/>
       <c r="D616" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="E616" t="s">
         <v>1818</v>
@@ -23862,7 +23865,7 @@
       </c>
       <c r="C617"/>
       <c r="D617" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="E617" t="s">
         <v>1821</v>
@@ -23880,7 +23883,7 @@
       </c>
       <c r="C618"/>
       <c r="D618" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="E618" t="s">
         <v>1824</v>
@@ -23898,7 +23901,7 @@
       </c>
       <c r="C619"/>
       <c r="D619" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="E619" t="s">
         <v>1827</v>
@@ -23916,7 +23919,7 @@
       </c>
       <c r="C620"/>
       <c r="D620" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="E620" t="s">
         <v>1830</v>
@@ -23934,7 +23937,7 @@
       </c>
       <c r="C621"/>
       <c r="D621" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="E621" t="s">
         <v>1833</v>
@@ -23952,7 +23955,7 @@
       </c>
       <c r="C622"/>
       <c r="D622" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
       <c r="E622" t="s">
         <v>1836</v>
@@ -23970,7 +23973,7 @@
       </c>
       <c r="C623"/>
       <c r="D623" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="E623" t="s">
         <v>1839</v>
@@ -23988,7 +23991,7 @@
       </c>
       <c r="C624"/>
       <c r="D624" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="E624" t="s">
         <v>1842</v>
@@ -24006,7 +24009,7 @@
       </c>
       <c r="C625"/>
       <c r="D625" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="E625" t="s">
         <v>1845</v>
@@ -24024,7 +24027,7 @@
       </c>
       <c r="C626"/>
       <c r="D626" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="E626" t="s">
         <v>1848</v>
@@ -24042,7 +24045,7 @@
       </c>
       <c r="C627"/>
       <c r="D627" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="E627" t="s">
         <v>1851</v>
@@ -24060,7 +24063,7 @@
       </c>
       <c r="C628"/>
       <c r="D628" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="E628" t="s">
         <v>1854</v>
@@ -24078,7 +24081,7 @@
       </c>
       <c r="C629"/>
       <c r="D629" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
       <c r="E629" t="s">
         <v>1857</v>
@@ -24096,7 +24099,7 @@
       </c>
       <c r="C630"/>
       <c r="D630" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="E630" t="s">
         <v>1860</v>
@@ -24114,7 +24117,7 @@
       </c>
       <c r="C631"/>
       <c r="D631" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="E631" t="s">
         <v>1863</v>
@@ -24132,7 +24135,7 @@
       </c>
       <c r="C632"/>
       <c r="D632" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
       <c r="E632" t="s">
         <v>1866</v>
@@ -24150,7 +24153,7 @@
       </c>
       <c r="C633"/>
       <c r="D633" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="E633" t="s">
         <v>1869</v>
@@ -24168,7 +24171,7 @@
       </c>
       <c r="C634"/>
       <c r="D634" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="E634" t="s">
         <v>1872</v>
@@ -24186,7 +24189,7 @@
       </c>
       <c r="C635"/>
       <c r="D635" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
       <c r="E635" t="s">
         <v>1875</v>
@@ -24204,7 +24207,7 @@
       </c>
       <c r="C636"/>
       <c r="D636" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="E636" t="s">
         <v>1878</v>
@@ -24222,7 +24225,7 @@
       </c>
       <c r="C637"/>
       <c r="D637" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="E637" t="s">
         <v>1881</v>
@@ -24240,7 +24243,7 @@
       </c>
       <c r="C638"/>
       <c r="D638" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="E638" t="s">
         <v>1884</v>
@@ -24258,7 +24261,7 @@
       </c>
       <c r="C639"/>
       <c r="D639" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="E639" t="s">
         <v>1887</v>
@@ -24276,7 +24279,7 @@
       </c>
       <c r="C640"/>
       <c r="D640" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="E640" t="s">
         <v>1890</v>
@@ -24294,7 +24297,7 @@
       </c>
       <c r="C641"/>
       <c r="D641" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="E641" t="s">
         <v>1893</v>
@@ -24312,7 +24315,7 @@
       </c>
       <c r="C642"/>
       <c r="D642" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
       <c r="E642" t="s">
         <v>1896</v>
@@ -24330,7 +24333,7 @@
       </c>
       <c r="C643"/>
       <c r="D643" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="E643" t="s">
         <v>1899</v>
@@ -24348,7 +24351,7 @@
       </c>
       <c r="C644"/>
       <c r="D644" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="E644" t="s">
         <v>1902</v>
@@ -24366,7 +24369,7 @@
       </c>
       <c r="C645"/>
       <c r="D645" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
       <c r="E645" t="s">
         <v>1905</v>
@@ -24384,7 +24387,7 @@
       </c>
       <c r="C646"/>
       <c r="D646" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="E646" t="s">
         <v>1908</v>
@@ -24402,7 +24405,7 @@
       </c>
       <c r="C647"/>
       <c r="D647" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="E647" t="s">
         <v>1911</v>
@@ -24420,7 +24423,7 @@
       </c>
       <c r="C648"/>
       <c r="D648" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
       <c r="E648" t="s">
         <v>1914</v>
@@ -24438,7 +24441,7 @@
       </c>
       <c r="C649"/>
       <c r="D649" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="E649" t="s">
         <v>1917</v>
@@ -24456,7 +24459,7 @@
       </c>
       <c r="C650"/>
       <c r="D650" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="E650" t="s">
         <v>1920</v>
@@ -24474,7 +24477,7 @@
       </c>
       <c r="C651"/>
       <c r="D651" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="E651" t="s">
         <v>1923</v>
@@ -24492,7 +24495,7 @@
       </c>
       <c r="C652"/>
       <c r="D652" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="E652" t="s">
         <v>1926</v>
@@ -24510,7 +24513,7 @@
       </c>
       <c r="C653"/>
       <c r="D653" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="E653" t="s">
         <v>1929</v>
@@ -24528,7 +24531,7 @@
       </c>
       <c r="C654"/>
       <c r="D654" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="E654" t="s">
         <v>1932</v>
@@ -24546,7 +24549,7 @@
       </c>
       <c r="C655"/>
       <c r="D655" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="E655" t="s">
         <v>1935</v>
@@ -24564,7 +24567,7 @@
       </c>
       <c r="C656"/>
       <c r="D656" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="E656" t="s">
         <v>1938</v>
@@ -24582,7 +24585,7 @@
       </c>
       <c r="C657"/>
       <c r="D657" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="E657" t="s">
         <v>1941</v>
@@ -24600,7 +24603,7 @@
       </c>
       <c r="C658"/>
       <c r="D658" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="E658" t="s">
         <v>1944</v>
@@ -24618,7 +24621,7 @@
       </c>
       <c r="C659"/>
       <c r="D659" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="E659" t="s">
         <v>1947</v>
@@ -24636,7 +24639,7 @@
       </c>
       <c r="C660"/>
       <c r="D660" t="s">
-        <v>3690</v>
+        <v>3691</v>
       </c>
       <c r="E660" t="s">
         <v>1950</v>
@@ -24654,7 +24657,7 @@
       </c>
       <c r="C661"/>
       <c r="D661" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="E661" t="s">
         <v>1953</v>
@@ -24672,7 +24675,7 @@
       </c>
       <c r="C662"/>
       <c r="D662" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="E662" t="s">
         <v>1956</v>
@@ -24690,7 +24693,7 @@
       </c>
       <c r="C663"/>
       <c r="D663" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="E663" t="s">
         <v>1959</v>
@@ -24708,7 +24711,7 @@
       </c>
       <c r="C664"/>
       <c r="D664" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="E664" t="s">
         <v>1962</v>
@@ -24726,7 +24729,7 @@
       </c>
       <c r="C665"/>
       <c r="D665" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="E665" t="s">
         <v>1965</v>
@@ -24744,7 +24747,7 @@
       </c>
       <c r="C666"/>
       <c r="D666" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="E666" t="s">
         <v>1968</v>
@@ -24762,7 +24765,7 @@
       </c>
       <c r="C667"/>
       <c r="D667" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="E667" t="s">
         <v>1971</v>
@@ -24780,7 +24783,7 @@
       </c>
       <c r="C668"/>
       <c r="D668" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="E668" t="s">
         <v>1974</v>
@@ -24798,7 +24801,7 @@
       </c>
       <c r="C669"/>
       <c r="D669" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="E669" t="s">
         <v>1977</v>
@@ -24816,7 +24819,7 @@
       </c>
       <c r="C670"/>
       <c r="D670" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="E670" t="s">
         <v>1980</v>
@@ -24834,7 +24837,7 @@
       </c>
       <c r="C671"/>
       <c r="D671" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="E671" t="s">
         <v>1983</v>
@@ -24852,7 +24855,7 @@
       </c>
       <c r="C672"/>
       <c r="D672" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="E672" t="s">
         <v>1986</v>
@@ -24870,7 +24873,7 @@
       </c>
       <c r="C673"/>
       <c r="D673" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="E673" t="s">
         <v>1989</v>
@@ -24888,7 +24891,7 @@
       </c>
       <c r="C674"/>
       <c r="D674" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="E674" t="s">
         <v>1992</v>
@@ -24906,7 +24909,7 @@
       </c>
       <c r="C675"/>
       <c r="D675" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="E675" t="s">
         <v>1995</v>
@@ -24924,7 +24927,7 @@
       </c>
       <c r="C676"/>
       <c r="D676" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="E676" t="s">
         <v>1998</v>
@@ -24942,7 +24945,7 @@
       </c>
       <c r="C677"/>
       <c r="D677" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="E677" t="s">
         <v>2001</v>
@@ -24960,7 +24963,7 @@
       </c>
       <c r="C678"/>
       <c r="D678" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="E678" t="s">
         <v>2004</v>
@@ -24978,7 +24981,7 @@
       </c>
       <c r="C679"/>
       <c r="D679" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="E679" t="s">
         <v>2007</v>
@@ -24996,7 +24999,7 @@
       </c>
       <c r="C680"/>
       <c r="D680" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="E680" t="s">
         <v>2010</v>
@@ -25014,7 +25017,7 @@
       </c>
       <c r="C681"/>
       <c r="D681" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="E681" t="s">
         <v>2013</v>
@@ -25032,7 +25035,7 @@
       </c>
       <c r="C682"/>
       <c r="D682" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="E682" t="s">
         <v>2016</v>
@@ -25050,7 +25053,7 @@
       </c>
       <c r="C683"/>
       <c r="D683" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="E683" t="s">
         <v>2019</v>
@@ -25068,7 +25071,7 @@
       </c>
       <c r="C684"/>
       <c r="D684" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="E684" t="s">
         <v>2022</v>
@@ -25086,7 +25089,7 @@
       </c>
       <c r="C685"/>
       <c r="D685" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
       <c r="E685" t="s">
         <v>2025</v>
@@ -25104,7 +25107,7 @@
       </c>
       <c r="C686"/>
       <c r="D686" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="E686" t="s">
         <v>2028</v>
@@ -25122,7 +25125,7 @@
       </c>
       <c r="C687"/>
       <c r="D687" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="E687" t="s">
         <v>2031</v>
@@ -25140,7 +25143,7 @@
       </c>
       <c r="C688"/>
       <c r="D688" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="E688" t="s">
         <v>2034</v>
@@ -25158,7 +25161,7 @@
       </c>
       <c r="C689"/>
       <c r="D689" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="E689" t="s">
         <v>2037</v>
@@ -25176,7 +25179,7 @@
       </c>
       <c r="C690"/>
       <c r="D690" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="E690" t="s">
         <v>2040</v>
@@ -25194,7 +25197,7 @@
       </c>
       <c r="C691"/>
       <c r="D691" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="E691" t="s">
         <v>2043</v>
@@ -25212,7 +25215,7 @@
       </c>
       <c r="C692"/>
       <c r="D692" t="s">
-        <v>3722</v>
+        <v>3723</v>
       </c>
       <c r="E692" t="s">
         <v>2046</v>
@@ -25230,7 +25233,7 @@
       </c>
       <c r="C693"/>
       <c r="D693" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="E693" t="s">
         <v>2049</v>
@@ -25248,7 +25251,7 @@
       </c>
       <c r="C694"/>
       <c r="D694" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="E694" t="s">
         <v>2052</v>
@@ -25266,7 +25269,7 @@
       </c>
       <c r="C695"/>
       <c r="D695" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="E695" t="s">
         <v>2055</v>
@@ -25284,7 +25287,7 @@
       </c>
       <c r="C696"/>
       <c r="D696" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="E696" t="s">
         <v>2058</v>
@@ -25302,7 +25305,7 @@
       </c>
       <c r="C697"/>
       <c r="D697" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="E697" t="s">
         <v>2061</v>
@@ -25320,7 +25323,7 @@
       </c>
       <c r="C698"/>
       <c r="D698" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
       <c r="E698" t="s">
         <v>2064</v>
@@ -25338,7 +25341,7 @@
       </c>
       <c r="C699"/>
       <c r="D699" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="E699" t="s">
         <v>2067</v>
@@ -25356,7 +25359,7 @@
       </c>
       <c r="C700"/>
       <c r="D700" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="E700" t="s">
         <v>2070</v>
@@ -25374,7 +25377,7 @@
       </c>
       <c r="C701"/>
       <c r="D701" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="E701" t="s">
         <v>2073</v>
@@ -25392,7 +25395,7 @@
       </c>
       <c r="C702"/>
       <c r="D702" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="E702" t="s">
         <v>2076</v>
@@ -25410,7 +25413,7 @@
       </c>
       <c r="C703"/>
       <c r="D703" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="E703" t="s">
         <v>2067</v>
@@ -25428,7 +25431,7 @@
       </c>
       <c r="C704"/>
       <c r="D704" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="E704" t="s">
         <v>2080</v>
@@ -25446,7 +25449,7 @@
       </c>
       <c r="C705"/>
       <c r="D705" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
       <c r="E705" t="s">
         <v>2083</v>
@@ -25464,7 +25467,7 @@
       </c>
       <c r="C706"/>
       <c r="D706" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="E706" t="s">
         <v>2086</v>
@@ -25482,7 +25485,7 @@
       </c>
       <c r="C707"/>
       <c r="D707" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="E707" t="s">
         <v>2089</v>
@@ -25500,7 +25503,7 @@
       </c>
       <c r="C708"/>
       <c r="D708" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="E708" t="s">
         <v>2092</v>
@@ -25518,7 +25521,7 @@
       </c>
       <c r="C709"/>
       <c r="D709" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="E709" t="s">
         <v>2095</v>
@@ -25536,7 +25539,7 @@
       </c>
       <c r="C710"/>
       <c r="D710" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="E710" t="s">
         <v>2098</v>
@@ -25554,7 +25557,7 @@
       </c>
       <c r="C711"/>
       <c r="D711" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="E711" t="s">
         <v>2101</v>
@@ -25572,7 +25575,7 @@
       </c>
       <c r="C712"/>
       <c r="D712" t="s">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="E712" t="s">
         <v>2104</v>
@@ -25590,7 +25593,7 @@
       </c>
       <c r="C713"/>
       <c r="D713" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="E713" t="s">
         <v>2107</v>
@@ -25608,7 +25611,7 @@
       </c>
       <c r="C714"/>
       <c r="D714" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="E714" t="s">
         <v>2110</v>
@@ -25626,7 +25629,7 @@
       </c>
       <c r="C715"/>
       <c r="D715" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E715" t="s">
         <v>2113</v>
@@ -25644,7 +25647,7 @@
       </c>
       <c r="C716"/>
       <c r="D716" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="E716" t="s">
         <v>2116</v>
@@ -25662,7 +25665,7 @@
       </c>
       <c r="C717"/>
       <c r="D717" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="E717" t="s">
         <v>2119</v>
@@ -25680,7 +25683,7 @@
       </c>
       <c r="C718"/>
       <c r="D718" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="E718" t="s">
         <v>2122</v>
@@ -25698,7 +25701,7 @@
       </c>
       <c r="C719"/>
       <c r="D719" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
       <c r="E719" t="s">
         <v>2125</v>
@@ -25716,7 +25719,7 @@
       </c>
       <c r="C720"/>
       <c r="D720" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="E720" t="s">
         <v>2128</v>
@@ -25734,7 +25737,7 @@
       </c>
       <c r="C721"/>
       <c r="D721" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="E721" t="s">
         <v>2131</v>
@@ -25752,7 +25755,7 @@
       </c>
       <c r="C722"/>
       <c r="D722" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="E722" t="s">
         <v>2134</v>
@@ -25770,7 +25773,7 @@
       </c>
       <c r="C723"/>
       <c r="D723" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
       <c r="E723" t="s">
         <v>2134</v>
@@ -25788,7 +25791,7 @@
       </c>
       <c r="C724"/>
       <c r="D724" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="E724" t="s">
         <v>2138</v>
@@ -25806,7 +25809,7 @@
       </c>
       <c r="C725"/>
       <c r="D725" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="E725" t="s">
         <v>2138</v>
@@ -25824,7 +25827,7 @@
       </c>
       <c r="C726"/>
       <c r="D726" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="E726" t="s">
         <v>2143</v>
@@ -25842,7 +25845,7 @@
       </c>
       <c r="C727"/>
       <c r="D727" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="E727" t="s">
         <v>2143</v>
@@ -25860,7 +25863,7 @@
       </c>
       <c r="C728"/>
       <c r="D728" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="E728" t="s">
         <v>2147</v>
@@ -25878,7 +25881,7 @@
       </c>
       <c r="C729"/>
       <c r="D729" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="E729" t="s">
         <v>2147</v>
@@ -25932,7 +25935,7 @@
       </c>
       <c r="C732"/>
       <c r="D732" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="E732" t="s">
         <v>2155</v>
@@ -25950,7 +25953,7 @@
       </c>
       <c r="C733"/>
       <c r="D733" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="E733" t="s">
         <v>2158</v>
@@ -25968,7 +25971,7 @@
       </c>
       <c r="C734"/>
       <c r="D734" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="E734" t="s">
         <v>2161</v>
@@ -25986,7 +25989,7 @@
       </c>
       <c r="C735"/>
       <c r="D735" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="E735" t="s">
         <v>2164</v>
@@ -26004,7 +26007,7 @@
       </c>
       <c r="C736"/>
       <c r="D736" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="E736" t="s">
         <v>2167</v>
@@ -26022,7 +26025,7 @@
       </c>
       <c r="C737"/>
       <c r="D737" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="E737" t="s">
         <v>2170</v>
@@ -26040,7 +26043,7 @@
       </c>
       <c r="C738"/>
       <c r="D738" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="E738" t="s">
         <v>2173</v>
@@ -26058,7 +26061,7 @@
       </c>
       <c r="C739"/>
       <c r="D739" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="E739" t="s">
         <v>2176</v>
@@ -26076,7 +26079,7 @@
       </c>
       <c r="C740"/>
       <c r="D740" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="E740" t="s">
         <v>2179</v>
@@ -26094,7 +26097,7 @@
       </c>
       <c r="C741"/>
       <c r="D741" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="E741" t="s">
         <v>2182</v>
@@ -26112,7 +26115,7 @@
       </c>
       <c r="C742"/>
       <c r="D742" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="E742" t="s">
         <v>2184</v>
@@ -26130,7 +26133,7 @@
       </c>
       <c r="C743"/>
       <c r="D743" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="E743" t="s">
         <v>2187</v>
@@ -26148,7 +26151,7 @@
       </c>
       <c r="C744"/>
       <c r="D744" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
       <c r="E744" t="s">
         <v>2190</v>
@@ -26166,7 +26169,7 @@
       </c>
       <c r="C745"/>
       <c r="D745" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="E745" t="s">
         <v>2193</v>
@@ -26184,7 +26187,7 @@
       </c>
       <c r="C746"/>
       <c r="D746" t="s">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="E746" t="s">
         <v>2196</v>
@@ -26202,7 +26205,7 @@
       </c>
       <c r="C747"/>
       <c r="D747" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="E747" t="s">
         <v>2199</v>
@@ -26220,7 +26223,7 @@
       </c>
       <c r="C748"/>
       <c r="D748" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="E748" t="s">
         <v>2202</v>
@@ -26238,7 +26241,7 @@
       </c>
       <c r="C749"/>
       <c r="D749" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="E749" t="s">
         <v>2205</v>
@@ -26256,7 +26259,7 @@
       </c>
       <c r="C750"/>
       <c r="D750" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="E750" t="s">
         <v>2208</v>
@@ -26274,7 +26277,7 @@
       </c>
       <c r="C751"/>
       <c r="D751" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="E751" t="s">
         <v>2211</v>
@@ -26292,7 +26295,7 @@
       </c>
       <c r="C752"/>
       <c r="D752" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="E752" t="s">
         <v>2214</v>
@@ -26310,7 +26313,7 @@
       </c>
       <c r="C753"/>
       <c r="D753" t="s">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="E753" t="s">
         <v>2217</v>
@@ -26328,7 +26331,7 @@
       </c>
       <c r="C754"/>
       <c r="D754" t="s">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="E754" t="s">
         <v>2220</v>
@@ -26346,7 +26349,7 @@
       </c>
       <c r="C755"/>
       <c r="D755" t="s">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="E755" t="s">
         <v>2223</v>
@@ -26364,7 +26367,7 @@
       </c>
       <c r="C756"/>
       <c r="D756" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="E756" t="s">
         <v>2226</v>
@@ -26382,7 +26385,7 @@
       </c>
       <c r="C757"/>
       <c r="D757" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
       <c r="E757" t="s">
         <v>2229</v>
@@ -26400,7 +26403,7 @@
       </c>
       <c r="C758"/>
       <c r="D758" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="E758" t="s">
         <v>2232</v>
@@ -26418,7 +26421,7 @@
       </c>
       <c r="C759"/>
       <c r="D759" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="E759" t="s">
         <v>2235</v>
@@ -26436,7 +26439,7 @@
       </c>
       <c r="C760"/>
       <c r="D760" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="E760" t="s">
         <v>2238</v>
@@ -26454,7 +26457,7 @@
       </c>
       <c r="C761"/>
       <c r="D761" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="E761" t="s">
         <v>2241</v>
@@ -26472,7 +26475,7 @@
       </c>
       <c r="C762"/>
       <c r="D762" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="E762" t="s">
         <v>2244</v>
@@ -26490,7 +26493,7 @@
       </c>
       <c r="C763"/>
       <c r="D763" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="E763" t="s">
         <v>2247</v>
@@ -26508,7 +26511,7 @@
       </c>
       <c r="C764"/>
       <c r="D764" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="E764" t="s">
         <v>2250</v>
@@ -26526,7 +26529,7 @@
       </c>
       <c r="C765"/>
       <c r="D765" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="E765" t="s">
         <v>2253</v>
@@ -26544,7 +26547,7 @@
       </c>
       <c r="C766"/>
       <c r="D766" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="E766" t="s">
         <v>2256</v>
@@ -26562,7 +26565,7 @@
       </c>
       <c r="C767"/>
       <c r="D767" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="E767" t="s">
         <v>2259</v>
@@ -26580,7 +26583,7 @@
       </c>
       <c r="C768"/>
       <c r="D768" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="E768" t="s">
         <v>2262</v>
@@ -26598,7 +26601,7 @@
       </c>
       <c r="C769"/>
       <c r="D769" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="E769" t="s">
         <v>2265</v>
@@ -26616,7 +26619,7 @@
       </c>
       <c r="C770"/>
       <c r="D770" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="E770" t="s">
         <v>2268</v>
@@ -26634,7 +26637,7 @@
       </c>
       <c r="C771"/>
       <c r="D771" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="E771" t="s">
         <v>2271</v>
@@ -26652,7 +26655,7 @@
       </c>
       <c r="C772"/>
       <c r="D772" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="E772" t="s">
         <v>2274</v>
@@ -26670,7 +26673,7 @@
       </c>
       <c r="C773"/>
       <c r="D773" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
       <c r="E773" t="s">
         <v>2277</v>
@@ -26688,7 +26691,7 @@
       </c>
       <c r="C774"/>
       <c r="D774" t="s">
-        <v>3797</v>
+        <v>3798</v>
       </c>
       <c r="E774" t="s">
         <v>2280</v>
@@ -26706,7 +26709,7 @@
       </c>
       <c r="C775"/>
       <c r="D775" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="E775" t="s">
         <v>2283</v>
@@ -26724,7 +26727,7 @@
       </c>
       <c r="C776"/>
       <c r="D776" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="E776" t="s">
         <v>2286</v>
@@ -26742,7 +26745,7 @@
       </c>
       <c r="C777"/>
       <c r="D777" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="E777" t="s">
         <v>2289</v>
@@ -26760,7 +26763,7 @@
       </c>
       <c r="C778"/>
       <c r="D778" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="E778" t="s">
         <v>2292</v>
@@ -26778,7 +26781,7 @@
       </c>
       <c r="C779"/>
       <c r="D779" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="E779" t="s">
         <v>2295</v>
@@ -26796,7 +26799,7 @@
       </c>
       <c r="C780"/>
       <c r="D780" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="E780" t="s">
         <v>2298</v>
@@ -26814,7 +26817,7 @@
       </c>
       <c r="C781"/>
       <c r="D781" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="E781" t="s">
         <v>2301</v>
@@ -26832,7 +26835,7 @@
       </c>
       <c r="C782"/>
       <c r="D782" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="E782" t="s">
         <v>2304</v>
@@ -26850,7 +26853,7 @@
       </c>
       <c r="C783"/>
       <c r="D783" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="E783" t="s">
         <v>2307</v>
@@ -26868,7 +26871,7 @@
       </c>
       <c r="C784"/>
       <c r="D784" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="E784" t="s">
         <v>2310</v>
@@ -26886,7 +26889,7 @@
       </c>
       <c r="C785"/>
       <c r="D785" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="E785" t="s">
         <v>2313</v>
@@ -26904,7 +26907,7 @@
       </c>
       <c r="C786"/>
       <c r="D786" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
       <c r="E786" t="s">
         <v>2316</v>
@@ -26922,7 +26925,7 @@
       </c>
       <c r="C787"/>
       <c r="D787" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="E787" t="s">
         <v>2319</v>
@@ -26940,7 +26943,7 @@
       </c>
       <c r="C788"/>
       <c r="D788" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="E788" t="s">
         <v>2322</v>
@@ -26958,7 +26961,7 @@
       </c>
       <c r="C789"/>
       <c r="D789" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="E789" t="s">
         <v>2325</v>
@@ -26976,7 +26979,7 @@
       </c>
       <c r="C790"/>
       <c r="D790" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="E790" t="s">
         <v>2328</v>
@@ -26994,7 +26997,7 @@
       </c>
       <c r="C791"/>
       <c r="D791" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="E791" t="s">
         <v>2331</v>
@@ -27012,7 +27015,7 @@
       </c>
       <c r="C792"/>
       <c r="D792" t="s">
-        <v>3815</v>
+        <v>3816</v>
       </c>
       <c r="E792" t="s">
         <v>2334</v>
@@ -27030,7 +27033,7 @@
       </c>
       <c r="C793"/>
       <c r="D793" t="s">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="E793" t="s">
         <v>2337</v>
@@ -27048,7 +27051,7 @@
       </c>
       <c r="C794"/>
       <c r="D794" t="s">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="E794" t="s">
         <v>2340</v>
@@ -27066,7 +27069,7 @@
       </c>
       <c r="C795"/>
       <c r="D795" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="E795" t="s">
         <v>2343</v>
@@ -27084,7 +27087,7 @@
       </c>
       <c r="C796"/>
       <c r="D796" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="E796" t="s">
         <v>2346</v>
@@ -27102,7 +27105,7 @@
       </c>
       <c r="C797"/>
       <c r="D797" t="s">
-        <v>3820</v>
+        <v>3821</v>
       </c>
       <c r="E797" t="s">
         <v>2349</v>
@@ -27120,7 +27123,7 @@
       </c>
       <c r="C798"/>
       <c r="D798" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="E798" t="s">
         <v>2352</v>
@@ -27138,7 +27141,7 @@
       </c>
       <c r="C799"/>
       <c r="D799" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="E799" t="s">
         <v>2298</v>
@@ -27156,7 +27159,7 @@
       </c>
       <c r="C800"/>
       <c r="D800" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="E800" t="s">
         <v>2356</v>
@@ -27174,7 +27177,7 @@
       </c>
       <c r="C801"/>
       <c r="D801" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="E801" t="s">
         <v>2359</v>
@@ -27192,7 +27195,7 @@
       </c>
       <c r="C802"/>
       <c r="D802" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="E802" t="s">
         <v>2362</v>
@@ -27210,7 +27213,7 @@
       </c>
       <c r="C803"/>
       <c r="D803" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="E803" t="s">
         <v>2365</v>
@@ -27228,7 +27231,7 @@
       </c>
       <c r="C804"/>
       <c r="D804" t="s">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="E804" t="s">
         <v>2368</v>
@@ -27246,7 +27249,7 @@
       </c>
       <c r="C805"/>
       <c r="D805" t="s">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="E805" t="s">
         <v>2371</v>
@@ -27264,7 +27267,7 @@
       </c>
       <c r="C806"/>
       <c r="D806" t="s">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="E806" t="s">
         <v>2374</v>
@@ -27282,7 +27285,7 @@
       </c>
       <c r="C807"/>
       <c r="D807" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="E807" t="s">
         <v>2377</v>
@@ -27300,7 +27303,7 @@
       </c>
       <c r="C808"/>
       <c r="D808" t="s">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="E808" t="s">
         <v>2380</v>
@@ -27318,7 +27321,7 @@
       </c>
       <c r="C809"/>
       <c r="D809" t="s">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="E809" t="s">
         <v>2383</v>
@@ -27336,7 +27339,7 @@
       </c>
       <c r="C810"/>
       <c r="D810" t="s">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="E810" t="s">
         <v>2386</v>
@@ -27354,7 +27357,7 @@
       </c>
       <c r="C811"/>
       <c r="D811" t="s">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="E811" t="s">
         <v>2389</v>
@@ -27374,7 +27377,7 @@
         <v>379</v>
       </c>
       <c r="D812" t="s">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="E812" t="s">
         <v>2392</v>
@@ -27394,7 +27397,7 @@
         <v>379</v>
       </c>
       <c r="D813" t="s">
-        <v>3836</v>
+        <v>3837</v>
       </c>
       <c r="E813" t="s">
         <v>2395</v>
@@ -27412,7 +27415,7 @@
       </c>
       <c r="C814"/>
       <c r="D814" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="E814" t="s">
         <v>2398</v>
@@ -27430,7 +27433,7 @@
       </c>
       <c r="C815"/>
       <c r="D815" t="s">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="E815" t="s">
         <v>2401</v>
@@ -27448,7 +27451,7 @@
       </c>
       <c r="C816"/>
       <c r="D816" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E816" t="s">
         <v>1684</v>
@@ -27466,7 +27469,7 @@
       </c>
       <c r="C817"/>
       <c r="D817" t="s">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="E817" t="s">
         <v>2406</v>
@@ -27484,7 +27487,7 @@
       </c>
       <c r="C818"/>
       <c r="D818" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="E818" t="s">
         <v>2409</v>
@@ -27502,7 +27505,7 @@
       </c>
       <c r="C819"/>
       <c r="D819" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="E819" t="s">
         <v>2412</v>
@@ -27520,7 +27523,7 @@
       </c>
       <c r="C820"/>
       <c r="D820" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="E820" t="s">
         <v>2415</v>
@@ -27538,7 +27541,7 @@
       </c>
       <c r="C821"/>
       <c r="D821" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
       <c r="E821" t="s">
         <v>2418</v>
@@ -27556,7 +27559,7 @@
       </c>
       <c r="C822"/>
       <c r="D822" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="E822" t="s">
         <v>2421</v>
@@ -27574,7 +27577,7 @@
       </c>
       <c r="C823"/>
       <c r="D823" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="E823" t="s">
         <v>2424</v>
@@ -27592,7 +27595,7 @@
       </c>
       <c r="C824"/>
       <c r="D824" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="E824" t="s">
         <v>2427</v>
@@ -27610,7 +27613,7 @@
       </c>
       <c r="C825"/>
       <c r="D825" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="E825" t="s">
         <v>2430</v>
@@ -27628,7 +27631,7 @@
       </c>
       <c r="C826"/>
       <c r="D826" t="s">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="E826" t="s">
         <v>2433</v>
@@ -27646,7 +27649,7 @@
       </c>
       <c r="C827"/>
       <c r="D827" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="E827" t="s">
         <v>2436</v>
@@ -27664,7 +27667,7 @@
       </c>
       <c r="C828"/>
       <c r="D828" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="E828" t="s">
         <v>2439</v>
@@ -27682,7 +27685,7 @@
       </c>
       <c r="C829"/>
       <c r="D829" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="E829" t="s">
         <v>2442</v>
@@ -27700,7 +27703,7 @@
       </c>
       <c r="C830"/>
       <c r="D830" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="E830" t="s">
         <v>2445</v>
@@ -27718,7 +27721,7 @@
       </c>
       <c r="C831"/>
       <c r="D831" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
       <c r="E831" t="s">
         <v>2448</v>
@@ -27736,7 +27739,7 @@
       </c>
       <c r="C832"/>
       <c r="D832" t="s">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="E832" t="s">
         <v>2451</v>
@@ -27754,7 +27757,7 @@
       </c>
       <c r="C833"/>
       <c r="D833" t="s">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="E833" t="s">
         <v>2454</v>
@@ -27772,7 +27775,7 @@
       </c>
       <c r="C834"/>
       <c r="D834" t="s">
-        <v>3856</v>
+        <v>3857</v>
       </c>
       <c r="E834" t="s">
         <v>2457</v>
@@ -27790,7 +27793,7 @@
       </c>
       <c r="C835"/>
       <c r="D835" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="E835" t="s">
         <v>2460</v>
@@ -27808,7 +27811,7 @@
       </c>
       <c r="C836"/>
       <c r="D836" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="E836" t="s">
         <v>2463</v>
@@ -27826,7 +27829,7 @@
       </c>
       <c r="C837"/>
       <c r="D837" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
       <c r="E837" t="s">
         <v>2466</v>
@@ -27844,7 +27847,7 @@
       </c>
       <c r="C838"/>
       <c r="D838" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="E838" t="s">
         <v>2469</v>
@@ -27862,7 +27865,7 @@
       </c>
       <c r="C839"/>
       <c r="D839" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
       <c r="E839" t="s">
         <v>2472</v>
@@ -27880,7 +27883,7 @@
       </c>
       <c r="C840"/>
       <c r="D840" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="E840" t="s">
         <v>2475</v>
@@ -27898,7 +27901,7 @@
       </c>
       <c r="C841"/>
       <c r="D841" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="E841" t="s">
         <v>2478</v>
@@ -27916,7 +27919,7 @@
       </c>
       <c r="C842"/>
       <c r="D842" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="E842" t="s">
         <v>2481</v>
@@ -27934,7 +27937,7 @@
       </c>
       <c r="C843"/>
       <c r="D843" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="E843" t="s">
         <v>2484</v>
@@ -27952,7 +27955,7 @@
       </c>
       <c r="C844"/>
       <c r="D844" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="E844" t="s">
         <v>2487</v>
@@ -27970,7 +27973,7 @@
       </c>
       <c r="C845"/>
       <c r="D845" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="E845" t="s">
         <v>2490</v>
@@ -27988,7 +27991,7 @@
       </c>
       <c r="C846"/>
       <c r="D846" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="E846" t="s">
         <v>2493</v>
@@ -28006,7 +28009,7 @@
       </c>
       <c r="C847"/>
       <c r="D847" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
       <c r="E847" t="s">
         <v>2496</v>
@@ -28024,7 +28027,7 @@
       </c>
       <c r="C848"/>
       <c r="D848" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="E848" t="s">
         <v>2499</v>
@@ -28042,7 +28045,7 @@
       </c>
       <c r="C849"/>
       <c r="D849" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="E849" t="s">
         <v>2502</v>
@@ -28060,7 +28063,7 @@
       </c>
       <c r="C850"/>
       <c r="D850" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="E850" t="s">
         <v>2505</v>
@@ -28078,7 +28081,7 @@
       </c>
       <c r="C851"/>
       <c r="D851" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
       <c r="E851" t="s">
         <v>2508</v>
@@ -28096,7 +28099,7 @@
       </c>
       <c r="C852"/>
       <c r="D852" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="E852" t="s">
         <v>2511</v>
@@ -28114,7 +28117,7 @@
       </c>
       <c r="C853"/>
       <c r="D853" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="E853" t="s">
         <v>2514</v>
@@ -28132,7 +28135,7 @@
       </c>
       <c r="C854"/>
       <c r="D854" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="E854" t="s">
         <v>2517</v>
@@ -28150,7 +28153,7 @@
       </c>
       <c r="C855"/>
       <c r="D855" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="E855" t="s">
         <v>2520</v>
@@ -28168,7 +28171,7 @@
       </c>
       <c r="C856"/>
       <c r="D856" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="E856" t="s">
         <v>2523</v>
@@ -28186,7 +28189,7 @@
       </c>
       <c r="C857"/>
       <c r="D857" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
       <c r="E857" t="s">
         <v>2526</v>
@@ -28204,7 +28207,7 @@
       </c>
       <c r="C858"/>
       <c r="D858" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="E858" t="s">
         <v>2529</v>
@@ -28222,7 +28225,7 @@
       </c>
       <c r="C859"/>
       <c r="D859" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="E859" t="s">
         <v>2532</v>
@@ -28240,7 +28243,7 @@
       </c>
       <c r="C860"/>
       <c r="D860" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
       <c r="E860" t="s">
         <v>2535</v>
@@ -28258,7 +28261,7 @@
       </c>
       <c r="C861"/>
       <c r="D861" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="E861" t="s">
         <v>2538</v>
@@ -28276,7 +28279,7 @@
       </c>
       <c r="C862"/>
       <c r="D862" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="E862" t="s">
         <v>2541</v>
@@ -28294,7 +28297,7 @@
       </c>
       <c r="C863"/>
       <c r="D863" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="E863" t="s">
         <v>2544</v>
@@ -28312,7 +28315,7 @@
       </c>
       <c r="C864"/>
       <c r="D864" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="E864" t="s">
         <v>2547</v>
@@ -28330,7 +28333,7 @@
       </c>
       <c r="C865"/>
       <c r="D865" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="E865" t="s">
         <v>2550</v>
@@ -28348,7 +28351,7 @@
       </c>
       <c r="C866"/>
       <c r="D866" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="E866" t="s">
         <v>2553</v>
@@ -28366,7 +28369,7 @@
       </c>
       <c r="C867"/>
       <c r="D867" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="E867" t="s">
         <v>2556</v>
@@ -28384,7 +28387,7 @@
       </c>
       <c r="C868"/>
       <c r="D868" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="E868" t="s">
         <v>2559</v>
@@ -28402,7 +28405,7 @@
       </c>
       <c r="C869"/>
       <c r="D869" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="E869" t="s">
         <v>2562</v>
@@ -28420,7 +28423,7 @@
       </c>
       <c r="C870"/>
       <c r="D870" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
       <c r="E870" t="s">
         <v>2565</v>
@@ -28438,7 +28441,7 @@
       </c>
       <c r="C871"/>
       <c r="D871" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="E871" t="s">
         <v>2568</v>
@@ -28456,7 +28459,7 @@
       </c>
       <c r="C872"/>
       <c r="D872" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="E872" t="s">
         <v>2571</v>
@@ -28474,7 +28477,7 @@
       </c>
       <c r="C873"/>
       <c r="D873" t="s">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="E873" t="s">
         <v>2574</v>
@@ -28492,7 +28495,7 @@
       </c>
       <c r="C874"/>
       <c r="D874" t="s">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="E874" t="s">
         <v>2577</v>
@@ -28510,7 +28513,7 @@
       </c>
       <c r="C875"/>
       <c r="D875" t="s">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="E875" t="s">
         <v>2580</v>
@@ -28528,7 +28531,7 @@
       </c>
       <c r="C876"/>
       <c r="D876" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="E876" t="s">
         <v>2583</v>
@@ -28546,7 +28549,7 @@
       </c>
       <c r="C877"/>
       <c r="D877" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="E877" t="s">
         <v>2586</v>
@@ -28564,7 +28567,7 @@
       </c>
       <c r="C878"/>
       <c r="D878" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="E878" t="s">
         <v>2589</v>
@@ -28582,7 +28585,7 @@
       </c>
       <c r="C879"/>
       <c r="D879" t="s">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="E879" t="s">
         <v>2592</v>
@@ -28600,7 +28603,7 @@
       </c>
       <c r="C880"/>
       <c r="D880" t="s">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="E880" t="s">
         <v>2595</v>
@@ -28618,7 +28621,7 @@
       </c>
       <c r="C881"/>
       <c r="D881" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="E881" t="s">
         <v>2598</v>
@@ -28636,7 +28639,7 @@
       </c>
       <c r="C882"/>
       <c r="D882" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="E882" t="s">
         <v>2601</v>
@@ -28654,7 +28657,7 @@
       </c>
       <c r="C883"/>
       <c r="D883" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="E883" t="s">
         <v>2604</v>
@@ -28672,7 +28675,7 @@
       </c>
       <c r="C884"/>
       <c r="D884" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="E884" t="s">
         <v>2607</v>
@@ -28690,7 +28693,7 @@
       </c>
       <c r="C885"/>
       <c r="D885" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="E885" t="s">
         <v>2610</v>
@@ -28708,7 +28711,7 @@
       </c>
       <c r="C886"/>
       <c r="D886" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="E886" t="s">
         <v>2613</v>
@@ -28726,7 +28729,7 @@
       </c>
       <c r="C887"/>
       <c r="D887" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="E887" t="s">
         <v>2616</v>
@@ -28744,7 +28747,7 @@
       </c>
       <c r="C888"/>
       <c r="D888" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="E888" t="s">
         <v>2619</v>
@@ -28762,7 +28765,7 @@
       </c>
       <c r="C889"/>
       <c r="D889" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="E889" t="s">
         <v>2622</v>
@@ -28780,7 +28783,7 @@
       </c>
       <c r="C890"/>
       <c r="D890" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="E890" t="s">
         <v>2625</v>
@@ -28798,7 +28801,7 @@
       </c>
       <c r="C891"/>
       <c r="D891" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="E891" t="s">
         <v>2628</v>
@@ -28816,7 +28819,7 @@
       </c>
       <c r="C892"/>
       <c r="D892" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="E892" t="s">
         <v>2631</v>
@@ -28834,7 +28837,7 @@
       </c>
       <c r="C893"/>
       <c r="D893" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="E893" t="s">
         <v>2634</v>
@@ -28852,7 +28855,7 @@
       </c>
       <c r="C894"/>
       <c r="D894" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="E894" t="s">
         <v>2637</v>
@@ -28870,7 +28873,7 @@
       </c>
       <c r="C895"/>
       <c r="D895" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="E895" t="s">
         <v>2640</v>
@@ -28888,7 +28891,7 @@
       </c>
       <c r="C896"/>
       <c r="D896" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="E896" t="s">
         <v>2643</v>
@@ -28906,7 +28909,7 @@
       </c>
       <c r="C897"/>
       <c r="D897" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="E897" t="s">
         <v>2646</v>
@@ -28924,7 +28927,7 @@
       </c>
       <c r="C898"/>
       <c r="D898" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="E898" t="s">
         <v>2649</v>
@@ -28942,7 +28945,7 @@
       </c>
       <c r="C899"/>
       <c r="D899" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="E899" t="s">
         <v>2649</v>
@@ -28960,7 +28963,7 @@
       </c>
       <c r="C900"/>
       <c r="D900" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="E900" t="s">
         <v>2654</v>
@@ -28978,7 +28981,7 @@
       </c>
       <c r="C901"/>
       <c r="D901" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="E901" t="s">
         <v>2657</v>
@@ -28996,7 +28999,7 @@
       </c>
       <c r="C902"/>
       <c r="D902" t="s">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="E902" t="s">
         <v>2660</v>
@@ -29014,7 +29017,7 @@
       </c>
       <c r="C903"/>
       <c r="D903" t="s">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="E903" t="s">
         <v>2663</v>
@@ -29032,7 +29035,7 @@
       </c>
       <c r="C904"/>
       <c r="D904" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="E904" t="s">
         <v>2666</v>
@@ -29050,7 +29053,7 @@
       </c>
       <c r="C905"/>
       <c r="D905" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="E905" t="s">
         <v>2669</v>
@@ -29068,7 +29071,7 @@
       </c>
       <c r="C906"/>
       <c r="D906" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="E906" t="s">
         <v>2672</v>
@@ -29086,7 +29089,7 @@
       </c>
       <c r="C907"/>
       <c r="D907" t="s">
-        <v>3928</v>
+        <v>3929</v>
       </c>
       <c r="E907" t="s">
         <v>2675</v>
@@ -29104,7 +29107,7 @@
       </c>
       <c r="C908"/>
       <c r="D908" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="E908" t="s">
         <v>2678</v>
@@ -29122,7 +29125,7 @@
       </c>
       <c r="C909"/>
       <c r="D909" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
       <c r="E909" t="s">
         <v>2681</v>
@@ -29140,7 +29143,7 @@
       </c>
       <c r="C910"/>
       <c r="D910" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="E910" t="s">
         <v>2684</v>
@@ -29158,7 +29161,7 @@
       </c>
       <c r="C911"/>
       <c r="D911" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="E911" t="s">
         <v>2687</v>
@@ -29176,7 +29179,7 @@
       </c>
       <c r="C912"/>
       <c r="D912" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="E912" t="s">
         <v>2690</v>
@@ -29194,7 +29197,7 @@
       </c>
       <c r="C913"/>
       <c r="D913" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
       <c r="E913" t="s">
         <v>2692</v>
@@ -29212,7 +29215,7 @@
       </c>
       <c r="C914"/>
       <c r="D914" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="E914" t="s">
         <v>2695</v>
@@ -29230,7 +29233,7 @@
       </c>
       <c r="C915"/>
       <c r="D915" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="E915" t="s">
         <v>2698</v>
@@ -29248,7 +29251,7 @@
       </c>
       <c r="C916"/>
       <c r="D916" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="E916" t="s">
         <v>2701</v>
@@ -29266,7 +29269,7 @@
       </c>
       <c r="C917"/>
       <c r="D917" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
       <c r="E917" t="s">
         <v>2704</v>
@@ -29284,7 +29287,7 @@
       </c>
       <c r="C918"/>
       <c r="D918" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="E918" t="s">
         <v>2707</v>
@@ -29302,7 +29305,7 @@
       </c>
       <c r="C919"/>
       <c r="D919" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="E919" t="s">
         <v>2710</v>
@@ -29320,7 +29323,7 @@
       </c>
       <c r="C920"/>
       <c r="D920" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="E920" t="s">
         <v>2713</v>
@@ -29338,7 +29341,7 @@
       </c>
       <c r="C921"/>
       <c r="D921" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="E921" t="s">
         <v>2716</v>
@@ -29356,7 +29359,7 @@
       </c>
       <c r="C922"/>
       <c r="D922" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="E922" t="s">
         <v>2719</v>
@@ -29374,7 +29377,7 @@
       </c>
       <c r="C923"/>
       <c r="D923" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="E923" t="s">
         <v>2722</v>
@@ -29392,7 +29395,7 @@
       </c>
       <c r="C924"/>
       <c r="D924" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
       <c r="E924" t="s">
         <v>2725</v>
@@ -29410,7 +29413,7 @@
       </c>
       <c r="C925"/>
       <c r="D925" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="E925" t="s">
         <v>2728</v>
@@ -29428,7 +29431,7 @@
       </c>
       <c r="C926"/>
       <c r="D926" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="E926" t="s">
         <v>2731</v>
@@ -29446,7 +29449,7 @@
       </c>
       <c r="C927"/>
       <c r="D927" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
       <c r="E927" t="s">
         <v>2734</v>
@@ -29464,7 +29467,7 @@
       </c>
       <c r="C928"/>
       <c r="D928" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="E928" t="s">
         <v>2737</v>
@@ -29482,7 +29485,7 @@
       </c>
       <c r="C929"/>
       <c r="D929" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="E929" t="s">
         <v>2740</v>
@@ -29500,7 +29503,7 @@
       </c>
       <c r="C930"/>
       <c r="D930" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
       <c r="E930" t="s">
         <v>2743</v>
@@ -29518,7 +29521,7 @@
       </c>
       <c r="C931"/>
       <c r="D931" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="E931" t="s">
         <v>2746</v>
@@ -29536,7 +29539,7 @@
       </c>
       <c r="C932"/>
       <c r="D932" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="E932" t="s">
         <v>2749</v>
@@ -29554,7 +29557,7 @@
       </c>
       <c r="C933"/>
       <c r="D933" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
       <c r="E933" t="s">
         <v>2752</v>
@@ -29572,7 +29575,7 @@
       </c>
       <c r="C934"/>
       <c r="D934" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="E934" t="s">
         <v>2755</v>
@@ -29590,7 +29593,7 @@
       </c>
       <c r="C935"/>
       <c r="D935" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="E935" t="s">
         <v>2758</v>
@@ -29608,7 +29611,7 @@
       </c>
       <c r="C936"/>
       <c r="D936" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="E936" t="s">
         <v>2761</v>
@@ -29626,7 +29629,7 @@
       </c>
       <c r="C937"/>
       <c r="D937" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
       <c r="E937" t="s">
         <v>2764</v>
@@ -29640,11 +29643,11 @@
         <v>2766</v>
       </c>
       <c r="B938" t="s">
-        <v>2922</v>
+        <v>3031</v>
       </c>
       <c r="C938"/>
       <c r="D938" t="s">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="E938" t="s">
         <v>2767</v>
@@ -29658,11 +29661,11 @@
         <v>2769</v>
       </c>
       <c r="B939" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="C939"/>
       <c r="D939" t="s">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="E939" t="s">
         <v>2770</v>
@@ -29676,11 +29679,11 @@
         <v>2772</v>
       </c>
       <c r="B940" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="C940"/>
       <c r="D940" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
       <c r="E940" t="s">
         <v>2773</v>
@@ -29694,11 +29697,11 @@
         <v>2775</v>
       </c>
       <c r="B941" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="C941"/>
       <c r="D941" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="E941" t="s">
         <v>2776</v>
@@ -29712,11 +29715,11 @@
         <v>2778</v>
       </c>
       <c r="B942" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="C942"/>
       <c r="D942" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="E942" t="s">
         <v>2779</v>
@@ -29734,7 +29737,7 @@
       </c>
       <c r="C943"/>
       <c r="D943" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
       <c r="E943" t="s">
         <v>2782</v>
@@ -29752,7 +29755,7 @@
       </c>
       <c r="C944"/>
       <c r="D944" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="E944" t="s">
         <v>2785</v>
@@ -29766,11 +29769,11 @@
         <v>2787</v>
       </c>
       <c r="B945" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C945"/>
       <c r="D945" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="E945" t="s">
         <v>2788</v>
@@ -29784,11 +29787,11 @@
         <v>2790</v>
       </c>
       <c r="B946" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C946"/>
       <c r="D946" t="s">
-        <v>3966</v>
+        <v>3967</v>
       </c>
       <c r="E946" t="s">
         <v>2791</v>
@@ -29802,11 +29805,11 @@
         <v>2793</v>
       </c>
       <c r="B947" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="C947"/>
       <c r="D947" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="E947" t="s">
         <v>2794</v>
@@ -29824,7 +29827,7 @@
       </c>
       <c r="C948"/>
       <c r="D948" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="E948" t="s">
         <v>2797</v>
@@ -29838,11 +29841,11 @@
         <v>2799</v>
       </c>
       <c r="B949" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="C949"/>
       <c r="D949" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="E949" t="s">
         <v>2800</v>
@@ -29856,11 +29859,11 @@
         <v>2802</v>
       </c>
       <c r="B950" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="C950"/>
       <c r="D950" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="E950" t="s">
         <v>2803</v>
@@ -29874,11 +29877,11 @@
         <v>2805</v>
       </c>
       <c r="B951" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="C951"/>
       <c r="D951" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="E951" t="s">
         <v>2803</v>
@@ -29892,11 +29895,11 @@
         <v>2806</v>
       </c>
       <c r="B952" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="C952"/>
       <c r="D952" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
       <c r="E952" t="s">
         <v>2803</v>
@@ -29910,11 +29913,11 @@
         <v>2807</v>
       </c>
       <c r="B953" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="C953"/>
       <c r="D953" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="E953" t="s">
         <v>2808</v>
@@ -29928,11 +29931,11 @@
         <v>2810</v>
       </c>
       <c r="B954" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="C954"/>
       <c r="D954" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="E954" t="s">
         <v>2811</v>
@@ -29950,7 +29953,7 @@
       </c>
       <c r="C955"/>
       <c r="D955" t="s">
-        <v>3973</v>
+        <v>3974</v>
       </c>
       <c r="E955" t="s">
         <v>2814</v>
@@ -29964,11 +29967,11 @@
         <v>2816</v>
       </c>
       <c r="B956" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C956"/>
       <c r="D956" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="E956" t="s">
         <v>2817</v>
@@ -29982,11 +29985,11 @@
         <v>2819</v>
       </c>
       <c r="B957" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="C957"/>
       <c r="D957" t="s">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="E957" t="s">
         <v>2820</v>
@@ -30000,11 +30003,11 @@
         <v>2822</v>
       </c>
       <c r="B958" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="C958"/>
       <c r="D958" t="s">
-        <v>3976</v>
+        <v>3977</v>
       </c>
       <c r="E958" t="s">
         <v>2823</v>
@@ -30018,11 +30021,11 @@
         <v>2825</v>
       </c>
       <c r="B959" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C959"/>
       <c r="D959" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="E959" t="s">
         <v>2826</v>
@@ -30036,11 +30039,11 @@
         <v>2828</v>
       </c>
       <c r="B960" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C960"/>
       <c r="D960" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="E960" t="s">
         <v>2829</v>
@@ -30054,11 +30057,11 @@
         <v>2831</v>
       </c>
       <c r="B961" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C961"/>
       <c r="D961" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
       <c r="E961" t="s">
         <v>2832</v>
@@ -30076,7 +30079,7 @@
       </c>
       <c r="C962"/>
       <c r="D962" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="E962" t="s">
         <v>2835</v>
@@ -30094,7 +30097,7 @@
       </c>
       <c r="C963"/>
       <c r="D963" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="E963" t="s">
         <v>2838</v>
@@ -30108,11 +30111,11 @@
         <v>2840</v>
       </c>
       <c r="B964" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C964"/>
       <c r="D964" t="s">
-        <v>3982</v>
+        <v>3983</v>
       </c>
       <c r="E964" t="s">
         <v>2841</v>
@@ -30126,11 +30129,11 @@
         <v>2843</v>
       </c>
       <c r="B965" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C965"/>
       <c r="D965" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="E965" t="s">
         <v>2844</v>
@@ -30144,11 +30147,11 @@
         <v>2846</v>
       </c>
       <c r="B966" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C966"/>
       <c r="D966" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="E966" t="s">
         <v>2847</v>
@@ -30162,11 +30165,11 @@
         <v>2849</v>
       </c>
       <c r="B967" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="C967"/>
       <c r="D967" t="s">
-        <v>3985</v>
+        <v>3986</v>
       </c>
       <c r="E967" t="s">
         <v>2850</v>
@@ -30180,11 +30183,11 @@
         <v>2852</v>
       </c>
       <c r="B968" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C968"/>
       <c r="D968" t="s">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="E968" t="s">
         <v>2853</v>
@@ -30198,11 +30201,11 @@
         <v>2855</v>
       </c>
       <c r="B969" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="C969"/>
       <c r="D969" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="E969" t="s">
         <v>2856</v>
@@ -30216,11 +30219,11 @@
         <v>2858</v>
       </c>
       <c r="B970" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C970"/>
       <c r="D970" t="s">
-        <v>3988</v>
+        <v>3989</v>
       </c>
       <c r="E970" t="s">
         <v>2859</v>
@@ -30234,11 +30237,11 @@
         <v>2861</v>
       </c>
       <c r="B971" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C971"/>
       <c r="D971" t="s">
-        <v>3989</v>
+        <v>3990</v>
       </c>
       <c r="E971" t="s">
         <v>2862</v>
@@ -30252,11 +30255,11 @@
         <v>2864</v>
       </c>
       <c r="B972" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="C972"/>
       <c r="D972" t="s">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="E972" t="s">
         <v>2865</v>
@@ -30270,11 +30273,11 @@
         <v>2867</v>
       </c>
       <c r="B973" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="C973"/>
       <c r="D973" t="s">
-        <v>3991</v>
+        <v>3992</v>
       </c>
       <c r="E973" t="s">
         <v>2868</v>
@@ -30288,11 +30291,11 @@
         <v>2870</v>
       </c>
       <c r="B974" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C974"/>
       <c r="D974" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="E974" t="s">
         <v>2871</v>
@@ -30306,11 +30309,11 @@
         <v>2873</v>
       </c>
       <c r="B975" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C975"/>
       <c r="D975" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="E975" t="s">
         <v>2874</v>
@@ -30328,7 +30331,7 @@
       </c>
       <c r="C976"/>
       <c r="D976" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="E976" t="s">
         <v>2874</v>
@@ -30346,7 +30349,7 @@
       </c>
       <c r="C977"/>
       <c r="D977" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="E977" t="s">
         <v>2878</v>
@@ -30364,7 +30367,7 @@
       </c>
       <c r="C978"/>
       <c r="D978" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="E978" t="s">
         <v>2878</v>
@@ -30378,11 +30381,11 @@
         <v>2881</v>
       </c>
       <c r="B979" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="C979"/>
       <c r="D979" t="s">
-        <v>3995</v>
+        <v>3996</v>
       </c>
       <c r="E979" t="s">
         <v>2882</v>
@@ -30396,11 +30399,11 @@
         <v>2884</v>
       </c>
       <c r="B980" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="C980"/>
       <c r="D980" t="s">
-        <v>3996</v>
+        <v>3997</v>
       </c>
       <c r="E980" t="s">
         <v>2885</v>
@@ -30414,11 +30417,11 @@
         <v>2887</v>
       </c>
       <c r="B981" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C981"/>
       <c r="D981" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="E981" t="s">
         <v>2888</v>
@@ -30432,11 +30435,11 @@
         <v>2890</v>
       </c>
       <c r="B982" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C982"/>
       <c r="D982" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="E982" t="s">
         <v>2891</v>
@@ -30450,11 +30453,11 @@
         <v>2893</v>
       </c>
       <c r="B983" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="C983"/>
       <c r="D983" t="s">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="E983" t="s">
         <v>2894</v>
@@ -30468,11 +30471,11 @@
         <v>2896</v>
       </c>
       <c r="B984" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C984"/>
       <c r="D984" t="s">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="E984" t="s">
         <v>2897</v>
@@ -30490,7 +30493,7 @@
       </c>
       <c r="C985"/>
       <c r="D985" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="E985" t="s">
         <v>2900</v>
@@ -30508,7 +30511,7 @@
       </c>
       <c r="C986"/>
       <c r="D986" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="E986" t="s">
         <v>2903</v>
@@ -30522,11 +30525,11 @@
         <v>2905</v>
       </c>
       <c r="B987" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="C987"/>
       <c r="D987" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="E987" t="s">
         <v>2906</v>
